--- a/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9705264267856012</v>
+        <v>0.9705264267856007</v>
       </c>
       <c r="D2">
-        <v>0.9950049325046834</v>
+        <v>0.995004932504683</v>
       </c>
       <c r="E2">
-        <v>0.957142905055547</v>
+        <v>0.9571429050555468</v>
       </c>
       <c r="F2">
-        <v>0.9573411679506335</v>
+        <v>0.9573411679506333</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,13 +439,13 @@
         <v>1.033983801187001</v>
       </c>
       <c r="J2">
-        <v>0.9936259010627606</v>
+        <v>0.9936259010627603</v>
       </c>
       <c r="K2">
         <v>1.0065342980086</v>
       </c>
       <c r="L2">
-        <v>0.9692334577609354</v>
+        <v>0.9692334577609353</v>
       </c>
       <c r="M2">
         <v>0.9694286342964137</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9798205536388631</v>
+        <v>0.9798205536388629</v>
       </c>
       <c r="D3">
         <v>1.00183520262377</v>
       </c>
       <c r="E3">
-        <v>0.9645007545139367</v>
+        <v>0.9645007545139368</v>
       </c>
       <c r="F3">
-        <v>0.9673538438797178</v>
+        <v>0.9673538438797179</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>0.9756089506104734</v>
       </c>
       <c r="M3">
-        <v>0.9784222125640808</v>
+        <v>0.9784222125640809</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.050000000000001</v>
       </c>
       <c r="C4">
-        <v>0.9855987419955269</v>
+        <v>0.9855987419955264</v>
       </c>
       <c r="D4">
         <v>1.006083599657846</v>
@@ -506,7 +506,7 @@
         <v>0.9690970488287569</v>
       </c>
       <c r="F4">
-        <v>0.9735930940459125</v>
+        <v>0.9735930940459124</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>1.038762714052173</v>
       </c>
       <c r="J4">
-        <v>1.005378147916118</v>
+        <v>1.005378147916117</v>
       </c>
       <c r="K4">
         <v>1.016109151346595</v>
@@ -524,7 +524,7 @@
         <v>0.9795833316974121</v>
       </c>
       <c r="M4">
-        <v>0.9840210336915085</v>
+        <v>0.9840210336915083</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9879754924126065</v>
+        <v>0.987975492412607</v>
       </c>
       <c r="D5">
         <v>1.007831380671726</v>
@@ -544,7 +544,7 @@
         <v>0.9709926540526747</v>
       </c>
       <c r="F5">
-        <v>0.9761629425239481</v>
+        <v>0.9761629425239483</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>1.039507104244478</v>
       </c>
       <c r="J5">
-        <v>1.007227972912246</v>
+        <v>1.007227972912247</v>
       </c>
       <c r="K5">
         <v>1.017613945150555</v>
@@ -562,7 +562,7 @@
         <v>0.9812205006086544</v>
       </c>
       <c r="M5">
-        <v>0.9863257679745586</v>
+        <v>0.9863257679745588</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9883715952959631</v>
+        <v>0.9883715952959644</v>
       </c>
       <c r="D6">
-        <v>1.008122672372436</v>
+        <v>1.008122672372437</v>
       </c>
       <c r="E6">
-        <v>0.9713088583837981</v>
+        <v>0.9713088583837988</v>
       </c>
       <c r="F6">
-        <v>0.976591429840266</v>
+        <v>0.9765914298402673</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039630893132953</v>
+        <v>1.039630893132954</v>
       </c>
       <c r="J6">
-        <v>1.007536157603544</v>
+        <v>1.007536157603545</v>
       </c>
       <c r="K6">
-        <v>1.017864577668973</v>
+        <v>1.017864577668974</v>
       </c>
       <c r="L6">
-        <v>0.9814934818012022</v>
+        <v>0.981493481801203</v>
       </c>
       <c r="M6">
-        <v>0.9867099717436943</v>
+        <v>0.9867099717436956</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9856307011561137</v>
+        <v>0.9856307011561152</v>
       </c>
       <c r="D7">
-        <v>1.006107100462374</v>
+        <v>1.006107100462375</v>
       </c>
       <c r="E7">
-        <v>0.9691225186913388</v>
+        <v>0.9691225186913398</v>
       </c>
       <c r="F7">
-        <v>0.97362763602414</v>
+        <v>0.9736276360241413</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038772741632398</v>
+        <v>1.038772741632399</v>
       </c>
       <c r="J7">
-        <v>1.005403028565971</v>
+        <v>1.005403028565973</v>
       </c>
       <c r="K7">
-        <v>1.016129395867946</v>
+        <v>1.016129395867947</v>
       </c>
       <c r="L7">
-        <v>0.9796053368098525</v>
+        <v>0.9796053368098533</v>
       </c>
       <c r="M7">
-        <v>0.9840520175280597</v>
+        <v>0.9840520175280609</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9737188133747933</v>
+        <v>0.9737188133747936</v>
       </c>
       <c r="D8">
-        <v>0.997350470415727</v>
+        <v>0.9973504704157273</v>
       </c>
       <c r="E8">
         <v>0.9596653938837013</v>
       </c>
       <c r="F8">
-        <v>0.9607773232341128</v>
+        <v>0.9607773232341129</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>1.035003743127474</v>
       </c>
       <c r="J8">
-        <v>0.9961178501784294</v>
+        <v>0.9961178501784296</v>
       </c>
       <c r="K8">
-        <v>1.008566451279351</v>
+        <v>1.008566451279352</v>
       </c>
       <c r="L8">
         <v>0.9714209366075957</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9507125751547978</v>
+        <v>0.9507125751547988</v>
       </c>
       <c r="D9">
-        <v>0.9804655625761073</v>
+        <v>0.9804655625761082</v>
       </c>
       <c r="E9">
-        <v>0.9415961195719542</v>
+        <v>0.9415961195719547</v>
       </c>
       <c r="F9">
-        <v>0.9360773680965359</v>
+        <v>0.9360773680965364</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.027577077579446</v>
       </c>
       <c r="J9">
-        <v>0.9781344613700671</v>
+        <v>0.9781344613700679</v>
       </c>
       <c r="K9">
-        <v>0.9938837281650713</v>
+        <v>0.9938837281650721</v>
       </c>
       <c r="L9">
-        <v>0.9557136020708408</v>
+        <v>0.955713602070841</v>
       </c>
       <c r="M9">
-        <v>0.9503003079332706</v>
+        <v>0.950300307933271</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9336668855996918</v>
+        <v>0.9336668855996911</v>
       </c>
       <c r="D10">
-        <v>0.9679922018365927</v>
+        <v>0.9679922018365923</v>
       </c>
       <c r="E10">
-        <v>0.9283678211409975</v>
+        <v>0.928367821140998</v>
       </c>
       <c r="F10">
-        <v>0.9178582826060766</v>
+        <v>0.9178582826060759</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.021981965617902</v>
       </c>
       <c r="J10">
-        <v>0.9647840684272145</v>
+        <v>0.964784068427214</v>
       </c>
       <c r="K10">
-        <v>0.9829644581405752</v>
+        <v>0.9829644581405749</v>
       </c>
       <c r="L10">
-        <v>0.94416320014435</v>
+        <v>0.9441632001443502</v>
       </c>
       <c r="M10">
-        <v>0.9338878935079189</v>
+        <v>0.9338878935079185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,31 +763,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9257794362155117</v>
+        <v>0.9257794362155118</v>
       </c>
       <c r="D11">
-        <v>0.9622343087126641</v>
+        <v>0.9622343087126644</v>
       </c>
       <c r="E11">
-        <v>0.9222918670498426</v>
+        <v>0.9222918670498425</v>
       </c>
       <c r="F11">
-        <v>0.9094472551222893</v>
+        <v>0.9094472551222894</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019373305742971</v>
+        <v>1.019373305742972</v>
       </c>
       <c r="J11">
-        <v>0.9586026200709227</v>
+        <v>0.9586026200709228</v>
       </c>
       <c r="K11">
-        <v>0.9779053920773655</v>
+        <v>0.9779053920773657</v>
       </c>
       <c r="L11">
-        <v>0.9388447747918919</v>
+        <v>0.9388447747918918</v>
       </c>
       <c r="M11">
         <v>0.9263058848623401</v>
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9227627025826712</v>
+        <v>0.9227627025826698</v>
       </c>
       <c r="D12">
-        <v>0.9600346701702732</v>
+        <v>0.9600346701702717</v>
       </c>
       <c r="E12">
         <v>0.9199755077332119</v>
       </c>
       <c r="F12">
-        <v>0.9062331749315674</v>
+        <v>0.9062331749315664</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01837285244948</v>
+        <v>1.018372852449479</v>
       </c>
       <c r="J12">
-        <v>0.9562380426783917</v>
+        <v>0.9562380426783909</v>
       </c>
       <c r="K12">
-        <v>0.9759697994894232</v>
+        <v>0.9759697994894219</v>
       </c>
       <c r="L12">
-        <v>0.9368151345890777</v>
+        <v>0.9368151345890773</v>
       </c>
       <c r="M12">
-        <v>0.9234079509347989</v>
+        <v>0.9234079509347979</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9234139385549043</v>
+        <v>0.9234139385549054</v>
       </c>
       <c r="D13">
-        <v>0.9605093897418688</v>
+        <v>0.9605093897418699</v>
       </c>
       <c r="E13">
-        <v>0.920475197988993</v>
+        <v>0.9204751979889939</v>
       </c>
       <c r="F13">
-        <v>0.9069268820832089</v>
+        <v>0.9069268820832099</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018588942716614</v>
+        <v>1.018588942716615</v>
       </c>
       <c r="J13">
-        <v>0.9567485057708003</v>
+        <v>0.9567485057708016</v>
       </c>
       <c r="K13">
-        <v>0.976387667440476</v>
+        <v>0.9763876674404772</v>
       </c>
       <c r="L13">
-        <v>0.9372530685636143</v>
+        <v>0.9372530685636151</v>
       </c>
       <c r="M13">
-        <v>0.9240334499587957</v>
+        <v>0.9240334499587967</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9255319177310025</v>
+        <v>0.9255319177310026</v>
       </c>
       <c r="D14">
-        <v>0.9620537758565832</v>
+        <v>0.9620537758565834</v>
       </c>
       <c r="E14">
         <v>0.922101656320012</v>
       </c>
       <c r="F14">
-        <v>0.9091834859261609</v>
+        <v>0.9091834859261608</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,13 +895,13 @@
         <v>1.019291273315067</v>
       </c>
       <c r="J14">
-        <v>0.9584086153964532</v>
+        <v>0.9584086153964533</v>
       </c>
       <c r="K14">
-        <v>0.9777465903829758</v>
+        <v>0.9777465903829762</v>
       </c>
       <c r="L14">
-        <v>0.9386781510029129</v>
+        <v>0.9386781510029132</v>
       </c>
       <c r="M14">
         <v>0.9260680730452334</v>
@@ -918,10 +918,10 @@
         <v>0.9268249836953087</v>
       </c>
       <c r="D15">
-        <v>0.9629970093797288</v>
+        <v>0.9629970093797291</v>
       </c>
       <c r="E15">
-        <v>0.9230956491463649</v>
+        <v>0.9230956491463648</v>
       </c>
       <c r="F15">
         <v>0.9105615651625508</v>
@@ -936,7 +936,7 @@
         <v>0.9594221065596785</v>
       </c>
       <c r="K15">
-        <v>0.9785761655909119</v>
+        <v>0.978576165590912</v>
       </c>
       <c r="L15">
         <v>0.9395487997101758</v>
@@ -956,10 +956,10 @@
         <v>0.9341787990936951</v>
       </c>
       <c r="D16">
-        <v>0.9683662270237924</v>
+        <v>0.9683662270237927</v>
       </c>
       <c r="E16">
-        <v>0.9287631481590526</v>
+        <v>0.9287631481590525</v>
       </c>
       <c r="F16">
         <v>0.9184045744717894</v>
@@ -971,16 +971,16 @@
         <v>1.022150889786273</v>
       </c>
       <c r="J16">
-        <v>0.9651851978910589</v>
+        <v>0.9651851978910592</v>
       </c>
       <c r="K16">
-        <v>0.9832926970678512</v>
+        <v>0.9832926970678513</v>
       </c>
       <c r="L16">
-        <v>0.9445089607793463</v>
+        <v>0.9445089607793462</v>
       </c>
       <c r="M16">
-        <v>0.9343802464338714</v>
+        <v>0.9343802464338713</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9386490318314209</v>
+        <v>0.9386490318314223</v>
       </c>
       <c r="D17">
-        <v>0.9716339577086247</v>
+        <v>0.9716339577086258</v>
       </c>
       <c r="E17">
-        <v>0.9322204012999441</v>
+        <v>0.9322204012999447</v>
       </c>
       <c r="F17">
-        <v>0.9231771726014015</v>
+        <v>0.9231771726014022</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.023623835642694</v>
       </c>
       <c r="J17">
-        <v>0.9686876097642949</v>
+        <v>0.9686876097642961</v>
       </c>
       <c r="K17">
-        <v>0.9861583238046359</v>
+        <v>0.9861583238046367</v>
       </c>
       <c r="L17">
-        <v>0.9475312592286116</v>
+        <v>0.9475312592286119</v>
       </c>
       <c r="M17">
-        <v>0.9386810625131305</v>
+        <v>0.9386810625131313</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9412084091331393</v>
+        <v>0.9412084091331402</v>
       </c>
       <c r="D18">
-        <v>0.973506101589305</v>
+        <v>0.9735061015893058</v>
       </c>
       <c r="E18">
-        <v>0.9342039342819861</v>
+        <v>0.9342039342819864</v>
       </c>
       <c r="F18">
-        <v>0.9259114617929419</v>
+        <v>0.9259114617929427</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02446531311147</v>
+        <v>1.024465313111471</v>
       </c>
       <c r="J18">
-        <v>0.9706924940347864</v>
+        <v>0.9706924940347872</v>
       </c>
       <c r="K18">
-        <v>0.9877983813389144</v>
+        <v>0.9877983813389151</v>
       </c>
       <c r="L18">
-        <v>0.9492640280625255</v>
+        <v>0.949264028062526</v>
       </c>
       <c r="M18">
-        <v>0.9411445841424785</v>
+        <v>0.941144584142479</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,19 +1064,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9420732381901991</v>
+        <v>0.9420732381901995</v>
       </c>
       <c r="D19">
-        <v>0.9741389076702368</v>
+        <v>0.9741389076702376</v>
       </c>
       <c r="E19">
-        <v>0.9348748621039098</v>
+        <v>0.93487486210391</v>
       </c>
       <c r="F19">
-        <v>0.9268356994337384</v>
+        <v>0.9268356994337387</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.024749334892374</v>
       </c>
       <c r="J19">
-        <v>0.971369885834088</v>
+        <v>0.9713698858340885</v>
       </c>
       <c r="K19">
-        <v>0.9883524523725925</v>
+        <v>0.9883524523725932</v>
       </c>
       <c r="L19">
-        <v>0.9498499313532306</v>
+        <v>0.9498499313532308</v>
       </c>
       <c r="M19">
-        <v>0.9419772137349487</v>
+        <v>0.9419772137349491</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9381744580247625</v>
+        <v>0.9381744580247656</v>
       </c>
       <c r="D20">
-        <v>0.9712869122632738</v>
+        <v>0.9712869122632762</v>
       </c>
       <c r="E20">
-        <v>0.931852934057576</v>
+        <v>0.931852934057577</v>
       </c>
       <c r="F20">
-        <v>0.9226703116432561</v>
+        <v>0.9226703116432585</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023467653210752</v>
+        <v>1.023467653210753</v>
       </c>
       <c r="J20">
-        <v>0.9683158207436284</v>
+        <v>0.9683158207436317</v>
       </c>
       <c r="K20">
-        <v>0.9858541626312716</v>
+        <v>0.9858541626312739</v>
       </c>
       <c r="L20">
-        <v>0.9472101501354697</v>
+        <v>0.9472101501354707</v>
       </c>
       <c r="M20">
-        <v>0.9382243548454002</v>
+        <v>0.9382243548454026</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9249107258513135</v>
+        <v>0.9249107258513132</v>
       </c>
       <c r="D21">
-        <v>0.9616007399747626</v>
+        <v>0.9616007399747625</v>
       </c>
       <c r="E21">
-        <v>0.9216244120020376</v>
+        <v>0.9216244120020374</v>
       </c>
       <c r="F21">
-        <v>0.9085215565898431</v>
+        <v>0.9085215565898429</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.019085355677814</v>
       </c>
       <c r="J21">
-        <v>0.9579217214030771</v>
+        <v>0.957921721403077</v>
       </c>
       <c r="K21">
-        <v>0.977348040143821</v>
+        <v>0.9773480401438208</v>
       </c>
       <c r="L21">
-        <v>0.9382600533149175</v>
+        <v>0.9382600533149174</v>
       </c>
       <c r="M21">
-        <v>0.9254712739061052</v>
+        <v>0.925471273906105</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,10 +1184,10 @@
         <v>0.9160607977574868</v>
       </c>
       <c r="D22">
-        <v>0.9551534877524661</v>
+        <v>0.955153487752466</v>
       </c>
       <c r="E22">
-        <v>0.914844468847806</v>
+        <v>0.9148444688478062</v>
       </c>
       <c r="F22">
         <v>0.8990982337375241</v>
@@ -1196,16 +1196,16 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01614554870346</v>
+        <v>1.016145548703461</v>
       </c>
       <c r="J22">
-        <v>0.950984631652102</v>
+        <v>0.9509846316521018</v>
       </c>
       <c r="K22">
         <v>0.9716689746701243</v>
       </c>
       <c r="L22">
-        <v>0.9323152424834537</v>
+        <v>0.9323152424834538</v>
       </c>
       <c r="M22">
         <v>0.9169737807341302</v>
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9208049803193253</v>
+        <v>0.9208049803193266</v>
       </c>
       <c r="D23">
-        <v>0.9586080116548047</v>
+        <v>0.9586080116548058</v>
       </c>
       <c r="E23">
-        <v>0.9184745270539154</v>
+        <v>0.9184745270539155</v>
       </c>
       <c r="F23">
-        <v>0.9041482032634244</v>
+        <v>0.9041482032634253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017722872972617</v>
+        <v>1.017722872972618</v>
       </c>
       <c r="J23">
-        <v>0.9547034779927115</v>
+        <v>0.9547034779927126</v>
       </c>
       <c r="K23">
-        <v>0.9747135552844205</v>
+        <v>0.9747135552844217</v>
       </c>
       <c r="L23">
-        <v>0.9354993455028684</v>
+        <v>0.9354993455028685</v>
       </c>
       <c r="M23">
-        <v>0.9215278980641468</v>
+        <v>0.9215278980641476</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9383890451387784</v>
+        <v>0.9383890451387795</v>
       </c>
       <c r="D24">
-        <v>0.971443831288023</v>
+        <v>0.9714438312880243</v>
       </c>
       <c r="E24">
-        <v>0.9320190782124527</v>
+        <v>0.9320190782124534</v>
       </c>
       <c r="F24">
-        <v>0.9228994923811583</v>
+        <v>0.9228994923811596</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023538279663966</v>
       </c>
       <c r="J24">
-        <v>0.9684839330588749</v>
+        <v>0.968483933058876</v>
       </c>
       <c r="K24">
-        <v>0.9859916965581603</v>
+        <v>0.9859916965581613</v>
       </c>
       <c r="L24">
-        <v>0.9473553380104668</v>
+        <v>0.9473553380104675</v>
       </c>
       <c r="M24">
-        <v>0.9384308599142934</v>
+        <v>0.9384308599142945</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9569318420434868</v>
+        <v>0.9569318420434902</v>
       </c>
       <c r="D25">
-        <v>0.9850252767141748</v>
+        <v>0.9850252767141777</v>
       </c>
       <c r="E25">
-        <v>0.9464560456752249</v>
+        <v>0.9464560456752256</v>
       </c>
       <c r="F25">
-        <v>0.9427408541553693</v>
+        <v>0.9427408541553717</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029600881075435</v>
+        <v>1.029600881075436</v>
       </c>
       <c r="J25">
-        <v>0.9830009382463515</v>
+        <v>0.9830009382463547</v>
       </c>
       <c r="K25">
-        <v>0.9978605908794786</v>
+        <v>0.9978605908794813</v>
       </c>
       <c r="L25">
-        <v>0.9599466184943504</v>
+        <v>0.9599466184943509</v>
       </c>
       <c r="M25">
-        <v>0.9562982257635559</v>
+        <v>0.9562982257635583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9705264267856007</v>
+        <v>0.9705264267856012</v>
       </c>
       <c r="D2">
-        <v>0.995004932504683</v>
+        <v>0.9950049325046834</v>
       </c>
       <c r="E2">
-        <v>0.9571429050555468</v>
+        <v>0.957142905055547</v>
       </c>
       <c r="F2">
-        <v>0.9573411679506333</v>
+        <v>0.9573411679506335</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,13 +439,13 @@
         <v>1.033983801187001</v>
       </c>
       <c r="J2">
-        <v>0.9936259010627603</v>
+        <v>0.9936259010627606</v>
       </c>
       <c r="K2">
         <v>1.0065342980086</v>
       </c>
       <c r="L2">
-        <v>0.9692334577609353</v>
+        <v>0.9692334577609354</v>
       </c>
       <c r="M2">
         <v>0.9694286342964137</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9798205536388629</v>
+        <v>0.9798205536388631</v>
       </c>
       <c r="D3">
         <v>1.00183520262377</v>
       </c>
       <c r="E3">
-        <v>0.9645007545139368</v>
+        <v>0.9645007545139367</v>
       </c>
       <c r="F3">
-        <v>0.9673538438797179</v>
+        <v>0.9673538438797178</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>0.9756089506104734</v>
       </c>
       <c r="M3">
-        <v>0.9784222125640809</v>
+        <v>0.9784222125640808</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.050000000000001</v>
       </c>
       <c r="C4">
-        <v>0.9855987419955264</v>
+        <v>0.9855987419955269</v>
       </c>
       <c r="D4">
         <v>1.006083599657846</v>
@@ -506,7 +506,7 @@
         <v>0.9690970488287569</v>
       </c>
       <c r="F4">
-        <v>0.9735930940459124</v>
+        <v>0.9735930940459125</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>1.038762714052173</v>
       </c>
       <c r="J4">
-        <v>1.005378147916117</v>
+        <v>1.005378147916118</v>
       </c>
       <c r="K4">
         <v>1.016109151346595</v>
@@ -524,7 +524,7 @@
         <v>0.9795833316974121</v>
       </c>
       <c r="M4">
-        <v>0.9840210336915083</v>
+        <v>0.9840210336915085</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.987975492412607</v>
+        <v>0.9879754924126065</v>
       </c>
       <c r="D5">
         <v>1.007831380671726</v>
@@ -544,7 +544,7 @@
         <v>0.9709926540526747</v>
       </c>
       <c r="F5">
-        <v>0.9761629425239483</v>
+        <v>0.9761629425239481</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>1.039507104244478</v>
       </c>
       <c r="J5">
-        <v>1.007227972912247</v>
+        <v>1.007227972912246</v>
       </c>
       <c r="K5">
         <v>1.017613945150555</v>
@@ -562,7 +562,7 @@
         <v>0.9812205006086544</v>
       </c>
       <c r="M5">
-        <v>0.9863257679745588</v>
+        <v>0.9863257679745586</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9883715952959644</v>
+        <v>0.9883715952959631</v>
       </c>
       <c r="D6">
-        <v>1.008122672372437</v>
+        <v>1.008122672372436</v>
       </c>
       <c r="E6">
-        <v>0.9713088583837988</v>
+        <v>0.9713088583837981</v>
       </c>
       <c r="F6">
-        <v>0.9765914298402673</v>
+        <v>0.976591429840266</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039630893132954</v>
+        <v>1.039630893132953</v>
       </c>
       <c r="J6">
-        <v>1.007536157603545</v>
+        <v>1.007536157603544</v>
       </c>
       <c r="K6">
-        <v>1.017864577668974</v>
+        <v>1.017864577668973</v>
       </c>
       <c r="L6">
-        <v>0.981493481801203</v>
+        <v>0.9814934818012022</v>
       </c>
       <c r="M6">
-        <v>0.9867099717436956</v>
+        <v>0.9867099717436943</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9856307011561152</v>
+        <v>0.9856307011561137</v>
       </c>
       <c r="D7">
-        <v>1.006107100462375</v>
+        <v>1.006107100462374</v>
       </c>
       <c r="E7">
-        <v>0.9691225186913398</v>
+        <v>0.9691225186913388</v>
       </c>
       <c r="F7">
-        <v>0.9736276360241413</v>
+        <v>0.97362763602414</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038772741632399</v>
+        <v>1.038772741632398</v>
       </c>
       <c r="J7">
-        <v>1.005403028565973</v>
+        <v>1.005403028565971</v>
       </c>
       <c r="K7">
-        <v>1.016129395867947</v>
+        <v>1.016129395867946</v>
       </c>
       <c r="L7">
-        <v>0.9796053368098533</v>
+        <v>0.9796053368098525</v>
       </c>
       <c r="M7">
-        <v>0.9840520175280609</v>
+        <v>0.9840520175280597</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9737188133747936</v>
+        <v>0.9737188133747933</v>
       </c>
       <c r="D8">
-        <v>0.9973504704157273</v>
+        <v>0.997350470415727</v>
       </c>
       <c r="E8">
         <v>0.9596653938837013</v>
       </c>
       <c r="F8">
-        <v>0.9607773232341129</v>
+        <v>0.9607773232341128</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>1.035003743127474</v>
       </c>
       <c r="J8">
-        <v>0.9961178501784296</v>
+        <v>0.9961178501784294</v>
       </c>
       <c r="K8">
-        <v>1.008566451279352</v>
+        <v>1.008566451279351</v>
       </c>
       <c r="L8">
         <v>0.9714209366075957</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9507125751547988</v>
+        <v>0.9507125751547978</v>
       </c>
       <c r="D9">
-        <v>0.9804655625761082</v>
+        <v>0.9804655625761073</v>
       </c>
       <c r="E9">
-        <v>0.9415961195719547</v>
+        <v>0.9415961195719542</v>
       </c>
       <c r="F9">
-        <v>0.9360773680965364</v>
+        <v>0.9360773680965359</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.027577077579446</v>
       </c>
       <c r="J9">
-        <v>0.9781344613700679</v>
+        <v>0.9781344613700671</v>
       </c>
       <c r="K9">
-        <v>0.9938837281650721</v>
+        <v>0.9938837281650713</v>
       </c>
       <c r="L9">
-        <v>0.955713602070841</v>
+        <v>0.9557136020708408</v>
       </c>
       <c r="M9">
-        <v>0.950300307933271</v>
+        <v>0.9503003079332706</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9336668855996911</v>
+        <v>0.9336668855996918</v>
       </c>
       <c r="D10">
-        <v>0.9679922018365923</v>
+        <v>0.9679922018365927</v>
       </c>
       <c r="E10">
-        <v>0.928367821140998</v>
+        <v>0.9283678211409975</v>
       </c>
       <c r="F10">
-        <v>0.9178582826060759</v>
+        <v>0.9178582826060766</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.021981965617902</v>
       </c>
       <c r="J10">
-        <v>0.964784068427214</v>
+        <v>0.9647840684272145</v>
       </c>
       <c r="K10">
-        <v>0.9829644581405749</v>
+        <v>0.9829644581405752</v>
       </c>
       <c r="L10">
-        <v>0.9441632001443502</v>
+        <v>0.94416320014435</v>
       </c>
       <c r="M10">
-        <v>0.9338878935079185</v>
+        <v>0.9338878935079189</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,31 +763,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9257794362155118</v>
+        <v>0.9257794362155117</v>
       </c>
       <c r="D11">
-        <v>0.9622343087126644</v>
+        <v>0.9622343087126641</v>
       </c>
       <c r="E11">
-        <v>0.9222918670498425</v>
+        <v>0.9222918670498426</v>
       </c>
       <c r="F11">
-        <v>0.9094472551222894</v>
+        <v>0.9094472551222893</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019373305742972</v>
+        <v>1.019373305742971</v>
       </c>
       <c r="J11">
-        <v>0.9586026200709228</v>
+        <v>0.9586026200709227</v>
       </c>
       <c r="K11">
-        <v>0.9779053920773657</v>
+        <v>0.9779053920773655</v>
       </c>
       <c r="L11">
-        <v>0.9388447747918918</v>
+        <v>0.9388447747918919</v>
       </c>
       <c r="M11">
         <v>0.9263058848623401</v>
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9227627025826698</v>
+        <v>0.9227627025826712</v>
       </c>
       <c r="D12">
-        <v>0.9600346701702717</v>
+        <v>0.9600346701702732</v>
       </c>
       <c r="E12">
         <v>0.9199755077332119</v>
       </c>
       <c r="F12">
-        <v>0.9062331749315664</v>
+        <v>0.9062331749315674</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018372852449479</v>
+        <v>1.01837285244948</v>
       </c>
       <c r="J12">
-        <v>0.9562380426783909</v>
+        <v>0.9562380426783917</v>
       </c>
       <c r="K12">
-        <v>0.9759697994894219</v>
+        <v>0.9759697994894232</v>
       </c>
       <c r="L12">
-        <v>0.9368151345890773</v>
+        <v>0.9368151345890777</v>
       </c>
       <c r="M12">
-        <v>0.9234079509347979</v>
+        <v>0.9234079509347989</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9234139385549054</v>
+        <v>0.9234139385549043</v>
       </c>
       <c r="D13">
-        <v>0.9605093897418699</v>
+        <v>0.9605093897418688</v>
       </c>
       <c r="E13">
-        <v>0.9204751979889939</v>
+        <v>0.920475197988993</v>
       </c>
       <c r="F13">
-        <v>0.9069268820832099</v>
+        <v>0.9069268820832089</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018588942716615</v>
+        <v>1.018588942716614</v>
       </c>
       <c r="J13">
-        <v>0.9567485057708016</v>
+        <v>0.9567485057708003</v>
       </c>
       <c r="K13">
-        <v>0.9763876674404772</v>
+        <v>0.976387667440476</v>
       </c>
       <c r="L13">
-        <v>0.9372530685636151</v>
+        <v>0.9372530685636143</v>
       </c>
       <c r="M13">
-        <v>0.9240334499587967</v>
+        <v>0.9240334499587957</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9255319177310026</v>
+        <v>0.9255319177310025</v>
       </c>
       <c r="D14">
-        <v>0.9620537758565834</v>
+        <v>0.9620537758565832</v>
       </c>
       <c r="E14">
         <v>0.922101656320012</v>
       </c>
       <c r="F14">
-        <v>0.9091834859261608</v>
+        <v>0.9091834859261609</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,13 +895,13 @@
         <v>1.019291273315067</v>
       </c>
       <c r="J14">
-        <v>0.9584086153964533</v>
+        <v>0.9584086153964532</v>
       </c>
       <c r="K14">
-        <v>0.9777465903829762</v>
+        <v>0.9777465903829758</v>
       </c>
       <c r="L14">
-        <v>0.9386781510029132</v>
+        <v>0.9386781510029129</v>
       </c>
       <c r="M14">
         <v>0.9260680730452334</v>
@@ -918,10 +918,10 @@
         <v>0.9268249836953087</v>
       </c>
       <c r="D15">
-        <v>0.9629970093797291</v>
+        <v>0.9629970093797288</v>
       </c>
       <c r="E15">
-        <v>0.9230956491463648</v>
+        <v>0.9230956491463649</v>
       </c>
       <c r="F15">
         <v>0.9105615651625508</v>
@@ -936,7 +936,7 @@
         <v>0.9594221065596785</v>
       </c>
       <c r="K15">
-        <v>0.978576165590912</v>
+        <v>0.9785761655909119</v>
       </c>
       <c r="L15">
         <v>0.9395487997101758</v>
@@ -956,10 +956,10 @@
         <v>0.9341787990936951</v>
       </c>
       <c r="D16">
-        <v>0.9683662270237927</v>
+        <v>0.9683662270237924</v>
       </c>
       <c r="E16">
-        <v>0.9287631481590525</v>
+        <v>0.9287631481590526</v>
       </c>
       <c r="F16">
         <v>0.9184045744717894</v>
@@ -971,16 +971,16 @@
         <v>1.022150889786273</v>
       </c>
       <c r="J16">
-        <v>0.9651851978910592</v>
+        <v>0.9651851978910589</v>
       </c>
       <c r="K16">
-        <v>0.9832926970678513</v>
+        <v>0.9832926970678512</v>
       </c>
       <c r="L16">
-        <v>0.9445089607793462</v>
+        <v>0.9445089607793463</v>
       </c>
       <c r="M16">
-        <v>0.9343802464338713</v>
+        <v>0.9343802464338714</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9386490318314223</v>
+        <v>0.9386490318314209</v>
       </c>
       <c r="D17">
-        <v>0.9716339577086258</v>
+        <v>0.9716339577086247</v>
       </c>
       <c r="E17">
-        <v>0.9322204012999447</v>
+        <v>0.9322204012999441</v>
       </c>
       <c r="F17">
-        <v>0.9231771726014022</v>
+        <v>0.9231771726014015</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.023623835642694</v>
       </c>
       <c r="J17">
-        <v>0.9686876097642961</v>
+        <v>0.9686876097642949</v>
       </c>
       <c r="K17">
-        <v>0.9861583238046367</v>
+        <v>0.9861583238046359</v>
       </c>
       <c r="L17">
-        <v>0.9475312592286119</v>
+        <v>0.9475312592286116</v>
       </c>
       <c r="M17">
-        <v>0.9386810625131313</v>
+        <v>0.9386810625131305</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9412084091331402</v>
+        <v>0.9412084091331393</v>
       </c>
       <c r="D18">
-        <v>0.9735061015893058</v>
+        <v>0.973506101589305</v>
       </c>
       <c r="E18">
-        <v>0.9342039342819864</v>
+        <v>0.9342039342819861</v>
       </c>
       <c r="F18">
-        <v>0.9259114617929427</v>
+        <v>0.9259114617929419</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024465313111471</v>
+        <v>1.02446531311147</v>
       </c>
       <c r="J18">
-        <v>0.9706924940347872</v>
+        <v>0.9706924940347864</v>
       </c>
       <c r="K18">
-        <v>0.9877983813389151</v>
+        <v>0.9877983813389144</v>
       </c>
       <c r="L18">
-        <v>0.949264028062526</v>
+        <v>0.9492640280625255</v>
       </c>
       <c r="M18">
-        <v>0.941144584142479</v>
+        <v>0.9411445841424785</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,19 +1064,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>0.9420732381901995</v>
+        <v>0.9420732381901991</v>
       </c>
       <c r="D19">
-        <v>0.9741389076702376</v>
+        <v>0.9741389076702368</v>
       </c>
       <c r="E19">
-        <v>0.93487486210391</v>
+        <v>0.9348748621039098</v>
       </c>
       <c r="F19">
-        <v>0.9268356994337387</v>
+        <v>0.9268356994337384</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.024749334892374</v>
       </c>
       <c r="J19">
-        <v>0.9713698858340885</v>
+        <v>0.971369885834088</v>
       </c>
       <c r="K19">
-        <v>0.9883524523725932</v>
+        <v>0.9883524523725925</v>
       </c>
       <c r="L19">
-        <v>0.9498499313532308</v>
+        <v>0.9498499313532306</v>
       </c>
       <c r="M19">
-        <v>0.9419772137349491</v>
+        <v>0.9419772137349487</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9381744580247656</v>
+        <v>0.9381744580247625</v>
       </c>
       <c r="D20">
-        <v>0.9712869122632762</v>
+        <v>0.9712869122632738</v>
       </c>
       <c r="E20">
-        <v>0.931852934057577</v>
+        <v>0.931852934057576</v>
       </c>
       <c r="F20">
-        <v>0.9226703116432585</v>
+        <v>0.9226703116432561</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023467653210753</v>
+        <v>1.023467653210752</v>
       </c>
       <c r="J20">
-        <v>0.9683158207436317</v>
+        <v>0.9683158207436284</v>
       </c>
       <c r="K20">
-        <v>0.9858541626312739</v>
+        <v>0.9858541626312716</v>
       </c>
       <c r="L20">
-        <v>0.9472101501354707</v>
+        <v>0.9472101501354697</v>
       </c>
       <c r="M20">
-        <v>0.9382243548454026</v>
+        <v>0.9382243548454002</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9249107258513132</v>
+        <v>0.9249107258513135</v>
       </c>
       <c r="D21">
-        <v>0.9616007399747625</v>
+        <v>0.9616007399747626</v>
       </c>
       <c r="E21">
-        <v>0.9216244120020374</v>
+        <v>0.9216244120020376</v>
       </c>
       <c r="F21">
-        <v>0.9085215565898429</v>
+        <v>0.9085215565898431</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.019085355677814</v>
       </c>
       <c r="J21">
-        <v>0.957921721403077</v>
+        <v>0.9579217214030771</v>
       </c>
       <c r="K21">
-        <v>0.9773480401438208</v>
+        <v>0.977348040143821</v>
       </c>
       <c r="L21">
-        <v>0.9382600533149174</v>
+        <v>0.9382600533149175</v>
       </c>
       <c r="M21">
-        <v>0.925471273906105</v>
+        <v>0.9254712739061052</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,10 +1184,10 @@
         <v>0.9160607977574868</v>
       </c>
       <c r="D22">
-        <v>0.955153487752466</v>
+        <v>0.9551534877524661</v>
       </c>
       <c r="E22">
-        <v>0.9148444688478062</v>
+        <v>0.914844468847806</v>
       </c>
       <c r="F22">
         <v>0.8990982337375241</v>
@@ -1196,16 +1196,16 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016145548703461</v>
+        <v>1.01614554870346</v>
       </c>
       <c r="J22">
-        <v>0.9509846316521018</v>
+        <v>0.950984631652102</v>
       </c>
       <c r="K22">
         <v>0.9716689746701243</v>
       </c>
       <c r="L22">
-        <v>0.9323152424834538</v>
+        <v>0.9323152424834537</v>
       </c>
       <c r="M22">
         <v>0.9169737807341302</v>
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9208049803193266</v>
+        <v>0.9208049803193253</v>
       </c>
       <c r="D23">
-        <v>0.9586080116548058</v>
+        <v>0.9586080116548047</v>
       </c>
       <c r="E23">
-        <v>0.9184745270539155</v>
+        <v>0.9184745270539154</v>
       </c>
       <c r="F23">
-        <v>0.9041482032634253</v>
+        <v>0.9041482032634244</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017722872972618</v>
+        <v>1.017722872972617</v>
       </c>
       <c r="J23">
-        <v>0.9547034779927126</v>
+        <v>0.9547034779927115</v>
       </c>
       <c r="K23">
-        <v>0.9747135552844217</v>
+        <v>0.9747135552844205</v>
       </c>
       <c r="L23">
-        <v>0.9354993455028685</v>
+        <v>0.9354993455028684</v>
       </c>
       <c r="M23">
-        <v>0.9215278980641476</v>
+        <v>0.9215278980641468</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9383890451387795</v>
+        <v>0.9383890451387784</v>
       </c>
       <c r="D24">
-        <v>0.9714438312880243</v>
+        <v>0.971443831288023</v>
       </c>
       <c r="E24">
-        <v>0.9320190782124534</v>
+        <v>0.9320190782124527</v>
       </c>
       <c r="F24">
-        <v>0.9228994923811596</v>
+        <v>0.9228994923811583</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.023538279663966</v>
       </c>
       <c r="J24">
-        <v>0.968483933058876</v>
+        <v>0.9684839330588749</v>
       </c>
       <c r="K24">
-        <v>0.9859916965581613</v>
+        <v>0.9859916965581603</v>
       </c>
       <c r="L24">
-        <v>0.9473553380104675</v>
+        <v>0.9473553380104668</v>
       </c>
       <c r="M24">
-        <v>0.9384308599142945</v>
+        <v>0.9384308599142934</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9569318420434902</v>
+        <v>0.9569318420434868</v>
       </c>
       <c r="D25">
-        <v>0.9850252767141777</v>
+        <v>0.9850252767141748</v>
       </c>
       <c r="E25">
-        <v>0.9464560456752256</v>
+        <v>0.9464560456752249</v>
       </c>
       <c r="F25">
-        <v>0.9427408541553717</v>
+        <v>0.9427408541553693</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029600881075436</v>
+        <v>1.029600881075435</v>
       </c>
       <c r="J25">
-        <v>0.9830009382463547</v>
+        <v>0.9830009382463515</v>
       </c>
       <c r="K25">
-        <v>0.9978605908794813</v>
+        <v>0.9978605908794786</v>
       </c>
       <c r="L25">
-        <v>0.9599466184943509</v>
+        <v>0.9599466184943504</v>
       </c>
       <c r="M25">
-        <v>0.9562982257635583</v>
+        <v>0.9562982257635559</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9705264267856012</v>
+        <v>0.9734079239277037</v>
       </c>
       <c r="D2">
-        <v>0.9950049325046834</v>
+        <v>0.9971651372022031</v>
       </c>
       <c r="E2">
-        <v>0.957142905055547</v>
+        <v>0.9580880169967506</v>
       </c>
       <c r="F2">
-        <v>0.9573411679506335</v>
+        <v>0.9594561849419995</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033983801187001</v>
+        <v>1.035079474867082</v>
       </c>
       <c r="J2">
-        <v>0.9936259010627606</v>
+        <v>0.996414170648602</v>
       </c>
       <c r="K2">
-        <v>1.0065342980086</v>
+        <v>1.008664107964431</v>
       </c>
       <c r="L2">
-        <v>0.9692334577609354</v>
+        <v>0.9701638717939477</v>
       </c>
       <c r="M2">
-        <v>0.9694286342964137</v>
+        <v>0.971510828199567</v>
+      </c>
+      <c r="N2">
+        <v>0.9978291930612255</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9798205536388631</v>
+        <v>0.9826757999362095</v>
       </c>
       <c r="D3">
-        <v>1.00183520262377</v>
+        <v>1.003979505496761</v>
       </c>
       <c r="E3">
-        <v>0.9645007545139367</v>
+        <v>0.9654286465179429</v>
       </c>
       <c r="F3">
-        <v>0.9673538438797178</v>
+        <v>0.9694411874717496</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036942005272034</v>
+        <v>1.038030995332229</v>
       </c>
       <c r="J3">
-        <v>1.000876867043139</v>
+        <v>1.003650146142858</v>
       </c>
       <c r="K3">
-        <v>1.012444655422086</v>
+        <v>1.01456171978094</v>
       </c>
       <c r="L3">
-        <v>0.9756089506104734</v>
+        <v>0.9765238571922858</v>
       </c>
       <c r="M3">
-        <v>0.9784222125640808</v>
+        <v>0.9804806053427391</v>
+      </c>
+      <c r="N3">
+        <v>1.005075444470661</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9855987419955269</v>
+        <v>0.988439014887076</v>
       </c>
       <c r="D4">
-        <v>1.006083599657846</v>
+        <v>1.008218915217617</v>
       </c>
       <c r="E4">
-        <v>0.9690970488287569</v>
+        <v>0.9700149986645977</v>
       </c>
       <c r="F4">
-        <v>0.9735930940459125</v>
+        <v>0.9756645115314094</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038762714052173</v>
+        <v>1.039848021082425</v>
       </c>
       <c r="J4">
-        <v>1.005378147916118</v>
+        <v>1.008143147537626</v>
       </c>
       <c r="K4">
-        <v>1.016109151346595</v>
+        <v>1.0182191470112</v>
       </c>
       <c r="L4">
-        <v>0.9795833316974121</v>
+        <v>0.9804893146765417</v>
       </c>
       <c r="M4">
-        <v>0.9840210336915085</v>
+        <v>0.9860657975174912</v>
+      </c>
+      <c r="N4">
+        <v>1.009574826442764</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9879754924126065</v>
+        <v>0.9908098970903071</v>
       </c>
       <c r="D5">
-        <v>1.007831380671726</v>
+        <v>1.009963194851849</v>
       </c>
       <c r="E5">
-        <v>0.9709926540526747</v>
+        <v>0.9719066792488416</v>
       </c>
       <c r="F5">
-        <v>0.9761629425239481</v>
+        <v>0.9782280837721634</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039507104244478</v>
+        <v>1.040590999892593</v>
       </c>
       <c r="J5">
-        <v>1.007227972912246</v>
+        <v>1.009989792621335</v>
       </c>
       <c r="K5">
-        <v>1.017613945150555</v>
+        <v>1.019721219551825</v>
       </c>
       <c r="L5">
-        <v>0.9812205006086544</v>
+        <v>0.9821229682867644</v>
       </c>
       <c r="M5">
-        <v>0.9863257679745586</v>
+        <v>0.9883651774868277</v>
+      </c>
+      <c r="N5">
+        <v>1.011424093974306</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9883715952959631</v>
+        <v>0.9912050382546433</v>
       </c>
       <c r="D6">
-        <v>1.008122672372436</v>
+        <v>1.010253913985125</v>
       </c>
       <c r="E6">
-        <v>0.9713088583837981</v>
+        <v>0.9722222387304916</v>
       </c>
       <c r="F6">
-        <v>0.976591429840266</v>
+        <v>0.9786555404263033</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039630893132953</v>
+        <v>1.040714559402315</v>
       </c>
       <c r="J6">
-        <v>1.007536157603544</v>
+        <v>1.010297460009652</v>
       </c>
       <c r="K6">
-        <v>1.017864577668973</v>
+        <v>1.019971409017967</v>
       </c>
       <c r="L6">
-        <v>0.9814934818012022</v>
+        <v>0.9823953723201839</v>
       </c>
       <c r="M6">
-        <v>0.9867099717436943</v>
+        <v>0.9887485029790475</v>
+      </c>
+      <c r="N6">
+        <v>1.011732198285604</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9856307011561137</v>
+        <v>0.9884708940261959</v>
       </c>
       <c r="D7">
-        <v>1.006107100462374</v>
+        <v>1.008242368190348</v>
       </c>
       <c r="E7">
-        <v>0.9691225186913388</v>
+        <v>0.970040415122533</v>
       </c>
       <c r="F7">
-        <v>0.97362763602414</v>
+        <v>0.9756989680653669</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038772741632398</v>
+        <v>1.039858029285472</v>
       </c>
       <c r="J7">
-        <v>1.005403028565971</v>
+        <v>1.008167984562446</v>
       </c>
       <c r="K7">
-        <v>1.016129395867946</v>
+        <v>1.018239354224925</v>
       </c>
       <c r="L7">
-        <v>0.9796053368098525</v>
+        <v>0.9805112719249892</v>
       </c>
       <c r="M7">
-        <v>0.9840520175280597</v>
+        <v>0.9860967083933547</v>
+      </c>
+      <c r="N7">
+        <v>1.009599698739009</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9737188133747933</v>
+        <v>0.976590985835134</v>
       </c>
       <c r="D8">
-        <v>0.997350470415727</v>
+        <v>0.9995050084311274</v>
       </c>
       <c r="E8">
-        <v>0.9596653938837013</v>
+        <v>0.9606044164969032</v>
       </c>
       <c r="F8">
-        <v>0.9607773232341128</v>
+        <v>0.9628825415730403</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035003743127474</v>
+        <v>1.036097014197639</v>
       </c>
       <c r="J8">
-        <v>0.9961178501784294</v>
+        <v>0.9989007336893325</v>
       </c>
       <c r="K8">
-        <v>1.008566451279351</v>
+        <v>1.01069168886911</v>
       </c>
       <c r="L8">
-        <v>0.9714209366075957</v>
+        <v>0.9723458602794742</v>
       </c>
       <c r="M8">
-        <v>0.972516174734499</v>
+        <v>0.9745899258274711</v>
+      </c>
+      <c r="N8">
+        <v>1.000319287306687</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9507125751547978</v>
+        <v>0.9536596206862921</v>
       </c>
       <c r="D9">
-        <v>0.9804655625761073</v>
+        <v>0.9826659913089163</v>
       </c>
       <c r="E9">
-        <v>0.9415961195719542</v>
+        <v>0.9425833744142509</v>
       </c>
       <c r="F9">
-        <v>0.9360773680965359</v>
+        <v>0.9382605651851488</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027577077579446</v>
+        <v>1.02869026998802</v>
       </c>
       <c r="J9">
-        <v>0.9781344613700671</v>
+        <v>0.9809620286384003</v>
       </c>
       <c r="K9">
-        <v>0.9938837281650713</v>
+        <v>0.9960467039711013</v>
       </c>
       <c r="L9">
-        <v>0.9557136020708408</v>
+        <v>0.9566821617318946</v>
       </c>
       <c r="M9">
-        <v>0.9503003079332706</v>
+        <v>0.952441592392299</v>
+      </c>
+      <c r="N9">
+        <v>0.9823551072369843</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9336668855996918</v>
+        <v>0.9366820129897862</v>
       </c>
       <c r="D10">
-        <v>0.9679922018365927</v>
+        <v>0.9702348515438576</v>
       </c>
       <c r="E10">
-        <v>0.9283678211409975</v>
+        <v>0.9293979549325339</v>
       </c>
       <c r="F10">
-        <v>0.9178582826060766</v>
+        <v>0.9201114579809876</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021981965617902</v>
+        <v>1.023114103205178</v>
       </c>
       <c r="J10">
-        <v>0.9647840684272145</v>
+        <v>0.9676543151271463</v>
       </c>
       <c r="K10">
-        <v>0.9829644581405752</v>
+        <v>0.9851631575484281</v>
       </c>
       <c r="L10">
-        <v>0.94416320014435</v>
+        <v>0.9451707535498488</v>
       </c>
       <c r="M10">
-        <v>0.9338878935079189</v>
+        <v>0.936090250443348</v>
+      </c>
+      <c r="N10">
+        <v>0.9690284952461281</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9257794362155117</v>
+        <v>0.9288302075370447</v>
       </c>
       <c r="D11">
-        <v>0.9622343087126641</v>
+        <v>0.9644991669163363</v>
       </c>
       <c r="E11">
-        <v>0.9222918670498426</v>
+        <v>0.9233441875928416</v>
       </c>
       <c r="F11">
-        <v>0.9094472551222893</v>
+        <v>0.9117368581819839</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019373305742971</v>
+        <v>1.020515552027903</v>
       </c>
       <c r="J11">
-        <v>0.9586026200709227</v>
+        <v>0.9614957364955279</v>
       </c>
       <c r="K11">
-        <v>0.9779053920773655</v>
+        <v>0.9801231371021718</v>
       </c>
       <c r="L11">
-        <v>0.9388447747918919</v>
+        <v>0.9398725528027606</v>
       </c>
       <c r="M11">
-        <v>0.9263058848623401</v>
+        <v>0.9285401441879574</v>
+      </c>
+      <c r="N11">
+        <v>0.9628611707264542</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9227627025826712</v>
+        <v>0.925827860526692</v>
       </c>
       <c r="D12">
-        <v>0.9600346701702732</v>
+        <v>0.9623085064967865</v>
       </c>
       <c r="E12">
-        <v>0.9199755077332119</v>
+        <v>0.9210367410932705</v>
       </c>
       <c r="F12">
-        <v>0.9062331749315674</v>
+        <v>0.9085374510938293</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01837285244948</v>
+        <v>1.019519206709482</v>
       </c>
       <c r="J12">
-        <v>0.9562380426783917</v>
+        <v>0.9591404723186469</v>
       </c>
       <c r="K12">
-        <v>0.9759697994894232</v>
+        <v>0.9781952839639081</v>
       </c>
       <c r="L12">
-        <v>0.9368151345890777</v>
+        <v>0.9378510444585685</v>
       </c>
       <c r="M12">
-        <v>0.9234079509347989</v>
+        <v>0.925655076990319</v>
+      </c>
+      <c r="N12">
+        <v>0.9605025618042891</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9234139385549043</v>
+        <v>0.9264759543208283</v>
       </c>
       <c r="D13">
-        <v>0.9605093897418688</v>
+        <v>0.9627812645410374</v>
       </c>
       <c r="E13">
-        <v>0.920475197988993</v>
+        <v>0.9215344866383074</v>
       </c>
       <c r="F13">
-        <v>0.9069268820832089</v>
+        <v>0.9092279548015335</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018588942716614</v>
+        <v>1.019734398517845</v>
       </c>
       <c r="J13">
-        <v>0.9567485057708003</v>
+        <v>0.9596488975615837</v>
       </c>
       <c r="K13">
-        <v>0.976387667440476</v>
+        <v>0.9786114591941463</v>
       </c>
       <c r="L13">
-        <v>0.9372530685636143</v>
+        <v>0.938287203795703</v>
       </c>
       <c r="M13">
-        <v>0.9240334499587957</v>
+        <v>0.9262777662095913</v>
+      </c>
+      <c r="N13">
+        <v>0.9610117090693885</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9255319177310025</v>
+        <v>0.928583853336541</v>
       </c>
       <c r="D14">
-        <v>0.9620537758565832</v>
+        <v>0.9643193603673477</v>
       </c>
       <c r="E14">
-        <v>0.922101656320012</v>
+        <v>0.9231546990167201</v>
       </c>
       <c r="F14">
-        <v>0.9091834859261609</v>
+        <v>0.9114742770364255</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019291273315067</v>
+        <v>1.020433851500782</v>
       </c>
       <c r="J14">
-        <v>0.9584086153964532</v>
+        <v>0.9613024838621328</v>
       </c>
       <c r="K14">
-        <v>0.9777465903829758</v>
+        <v>0.9799649607053623</v>
       </c>
       <c r="L14">
-        <v>0.9386781510029129</v>
+        <v>0.9397065877461169</v>
       </c>
       <c r="M14">
-        <v>0.9260680730452334</v>
+        <v>0.928303373838551</v>
+      </c>
+      <c r="N14">
+        <v>0.9626676436521531</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9268249836953087</v>
+        <v>0.9298708683169092</v>
       </c>
       <c r="D15">
-        <v>0.9629970093797288</v>
+        <v>0.9652588197066678</v>
       </c>
       <c r="E15">
-        <v>0.9230956491463649</v>
+        <v>0.9241449369983894</v>
       </c>
       <c r="F15">
-        <v>0.9105615651625508</v>
+        <v>0.9128461805985433</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019719712258621</v>
+        <v>1.02086056659945</v>
       </c>
       <c r="J15">
-        <v>0.9594221065596785</v>
+        <v>0.9623120698275536</v>
       </c>
       <c r="K15">
-        <v>0.9785761655909119</v>
+        <v>0.9807912882072709</v>
       </c>
       <c r="L15">
-        <v>0.9395487997101758</v>
+        <v>0.9405738116572749</v>
       </c>
       <c r="M15">
-        <v>0.9273105109431925</v>
+        <v>0.929540398671991</v>
+      </c>
+      <c r="N15">
+        <v>0.9636786633454461</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9341787990936951</v>
+        <v>0.9371917081464129</v>
       </c>
       <c r="D16">
-        <v>0.9683662270237924</v>
+        <v>0.9706074964857038</v>
       </c>
       <c r="E16">
-        <v>0.9287631481590526</v>
+        <v>0.929791895812645</v>
       </c>
       <c r="F16">
-        <v>0.9184045744717894</v>
+        <v>0.9206554787717878</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022150889786273</v>
+        <v>1.023282401895988</v>
       </c>
       <c r="J16">
-        <v>0.9651851978910589</v>
+        <v>0.9680540317704792</v>
       </c>
       <c r="K16">
-        <v>0.9832926970678512</v>
+        <v>0.985490217880774</v>
       </c>
       <c r="L16">
-        <v>0.9445089607793463</v>
+        <v>0.945515251578301</v>
       </c>
       <c r="M16">
-        <v>0.9343802464338714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9365806165682511</v>
+      </c>
+      <c r="N16">
+        <v>0.9694287795329429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9386490318314209</v>
+        <v>0.9416430427603971</v>
       </c>
       <c r="D17">
-        <v>0.9716339577086247</v>
+        <v>0.9738634794910004</v>
       </c>
       <c r="E17">
-        <v>0.9322204012999441</v>
+        <v>0.9332373127383196</v>
       </c>
       <c r="F17">
-        <v>0.9231771726014015</v>
+        <v>0.9254087078273099</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023623835642694</v>
+        <v>1.024750039012786</v>
       </c>
       <c r="J17">
-        <v>0.9686876097642949</v>
+        <v>0.9715444628708851</v>
       </c>
       <c r="K17">
-        <v>0.9861583238046359</v>
+        <v>0.9883458399084843</v>
       </c>
       <c r="L17">
-        <v>0.9475312592286116</v>
+        <v>0.9485267737003327</v>
       </c>
       <c r="M17">
-        <v>0.9386810625131305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9408644995908042</v>
+      </c>
+      <c r="N17">
+        <v>0.9729241674458696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,75 +1077,81 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9412084091331393</v>
+        <v>0.9441919739820303</v>
       </c>
       <c r="D18">
-        <v>0.973506101589305</v>
+        <v>0.9757291387622191</v>
       </c>
       <c r="E18">
-        <v>0.9342039342819861</v>
+        <v>0.9352142807897034</v>
       </c>
       <c r="F18">
-        <v>0.9259114617929419</v>
+        <v>0.9281322725353073</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02446531311147</v>
+        <v>1.02558859840431</v>
       </c>
       <c r="J18">
-        <v>0.9706924940347864</v>
+        <v>0.9735427695841921</v>
       </c>
       <c r="K18">
-        <v>0.9877983813389144</v>
+        <v>0.9899803966674944</v>
       </c>
       <c r="L18">
-        <v>0.9492640280625255</v>
+        <v>0.9502535696341695</v>
       </c>
       <c r="M18">
-        <v>0.9411445841424785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9433186550988431</v>
+      </c>
+      <c r="N18">
+        <v>0.9749253119839183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9420732381901991</v>
+        <v>0.9450533333645189</v>
       </c>
       <c r="D19">
-        <v>0.9741389076702368</v>
+        <v>0.9763597925360995</v>
       </c>
       <c r="E19">
-        <v>0.9348748621039098</v>
+        <v>0.9358830243377969</v>
       </c>
       <c r="F19">
-        <v>0.9268356994337384</v>
+        <v>0.9290529449265363</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024749334892374</v>
+        <v>1.025871653739052</v>
       </c>
       <c r="J19">
-        <v>0.971369885834088</v>
+        <v>0.9742179841726568</v>
       </c>
       <c r="K19">
-        <v>0.9883524523725925</v>
+        <v>0.9905326455857836</v>
       </c>
       <c r="L19">
-        <v>0.9498499313532306</v>
+        <v>0.9508374863368693</v>
       </c>
       <c r="M19">
-        <v>0.9419772137349487</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9441481726425297</v>
+      </c>
+      <c r="N19">
+        <v>0.9756014854545468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9381744580247625</v>
+        <v>0.9411704354864823</v>
       </c>
       <c r="D20">
-        <v>0.9712869122632738</v>
+        <v>0.9735176555624594</v>
       </c>
       <c r="E20">
-        <v>0.931852934057576</v>
+        <v>0.9328710795480879</v>
       </c>
       <c r="F20">
-        <v>0.9226703116432561</v>
+        <v>0.9249038643090977</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023467653210752</v>
+        <v>1.024594407282942</v>
       </c>
       <c r="J20">
-        <v>0.9683158207436284</v>
+        <v>0.9711739158027601</v>
       </c>
       <c r="K20">
-        <v>0.9858541626312716</v>
+        <v>0.9880427167134448</v>
       </c>
       <c r="L20">
-        <v>0.9472101501354697</v>
+        <v>0.9482067877152519</v>
       </c>
       <c r="M20">
-        <v>0.9382243548454002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9404095546251565</v>
+      </c>
+      <c r="N20">
+        <v>0.9725530941584052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9249107258513135</v>
+        <v>0.927965596035973</v>
       </c>
       <c r="D21">
-        <v>0.9616007399747626</v>
+        <v>0.9638681553653289</v>
       </c>
       <c r="E21">
-        <v>0.9216244120020376</v>
+        <v>0.9226792742101352</v>
       </c>
       <c r="F21">
-        <v>0.9085215565898431</v>
+        <v>0.9108153417166384</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019085355677814</v>
+        <v>1.020228770859085</v>
       </c>
       <c r="J21">
-        <v>0.9579217214030771</v>
+        <v>0.960817486707949</v>
       </c>
       <c r="K21">
-        <v>0.977348040143821</v>
+        <v>0.979567987359001</v>
       </c>
       <c r="L21">
-        <v>0.9382600533149175</v>
+        <v>0.9392901498907164</v>
       </c>
       <c r="M21">
-        <v>0.9254712739061052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9277091995701846</v>
+      </c>
+      <c r="N21">
+        <v>0.9621819577463806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9160607977574868</v>
+        <v>0.9191594969511426</v>
       </c>
       <c r="D22">
-        <v>0.9551534877524661</v>
+        <v>0.9574482814870721</v>
       </c>
       <c r="E22">
-        <v>0.914844468847806</v>
+        <v>0.9159263979000022</v>
       </c>
       <c r="F22">
-        <v>0.8990982337375241</v>
+        <v>0.9014366645698226</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01614554870346</v>
+        <v>1.017301532743329</v>
       </c>
       <c r="J22">
-        <v>0.950984631652102</v>
+        <v>0.9539089359778594</v>
       </c>
       <c r="K22">
-        <v>0.9716689746701243</v>
+        <v>0.9739126035061669</v>
       </c>
       <c r="L22">
-        <v>0.9323152424834537</v>
+        <v>0.9333700485109321</v>
       </c>
       <c r="M22">
-        <v>0.9169737807341302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9192508876070024</v>
+      </c>
+      <c r="N22">
+        <v>0.955263596081832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9208049803193253</v>
+        <v>0.9238797070793814</v>
       </c>
       <c r="D23">
-        <v>0.9586080116548047</v>
+        <v>0.9608878233823099</v>
       </c>
       <c r="E23">
-        <v>0.9184745270539154</v>
+        <v>0.9195416761605383</v>
       </c>
       <c r="F23">
-        <v>0.9041482032634244</v>
+        <v>0.9064622305747647</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017722872972617</v>
+        <v>1.018871967347587</v>
       </c>
       <c r="J23">
-        <v>0.9547034779927115</v>
+        <v>0.9576121259088944</v>
       </c>
       <c r="K23">
-        <v>0.9747135552844205</v>
+        <v>0.9769442023253005</v>
       </c>
       <c r="L23">
-        <v>0.9354993455028684</v>
+        <v>0.9365406548344435</v>
       </c>
       <c r="M23">
-        <v>0.9215278980641468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9237835794387923</v>
+      </c>
+      <c r="N23">
+        <v>0.9589720449673312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9383890451387784</v>
+        <v>0.9413841322422505</v>
       </c>
       <c r="D24">
-        <v>0.971443831288023</v>
+        <v>0.9736740215103603</v>
       </c>
       <c r="E24">
-        <v>0.9320190782124527</v>
+        <v>0.9330366650497659</v>
       </c>
       <c r="F24">
-        <v>0.9228994923811583</v>
+        <v>0.9251321316974997</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023538279663966</v>
+        <v>1.024664784351048</v>
       </c>
       <c r="J24">
-        <v>0.9684839330588749</v>
+        <v>0.9713414656756493</v>
       </c>
       <c r="K24">
-        <v>0.9859916965581603</v>
+        <v>0.9881797805971991</v>
       </c>
       <c r="L24">
-        <v>0.9473553380104668</v>
+        <v>0.9483514671480895</v>
       </c>
       <c r="M24">
-        <v>0.9384308599142934</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.940615261641039</v>
+      </c>
+      <c r="N24">
+        <v>0.972720881971332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9569318420434868</v>
+        <v>0.9598568334691973</v>
       </c>
       <c r="D25">
-        <v>0.9850252767141748</v>
+        <v>0.9872121101417251</v>
       </c>
       <c r="E25">
-        <v>0.9464560456752249</v>
+        <v>0.947429234172249</v>
       </c>
       <c r="F25">
-        <v>0.9427408541553693</v>
+        <v>0.9449012251926914</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029600881075435</v>
+        <v>1.030708077636645</v>
       </c>
       <c r="J25">
-        <v>0.9830009382463515</v>
+        <v>0.9858150430670422</v>
       </c>
       <c r="K25">
-        <v>0.9978605908794786</v>
+        <v>1.000012239308065</v>
       </c>
       <c r="L25">
-        <v>0.9599466184943504</v>
+        <v>0.9609024215720955</v>
       </c>
       <c r="M25">
-        <v>0.9562982257635559</v>
+        <v>0.9584196704880361</v>
+      </c>
+      <c r="N25">
+        <v>0.9872150135027635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.026133358165157</v>
+      </c>
+      <c r="D2">
+        <v>1.043726218479444</v>
+      </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.037166898424508</v>
+      </c>
+      <c r="F2">
+        <v>1.049131814345434</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.055701524143087</v>
+      </c>
+      <c r="J2">
+        <v>1.047559563624716</v>
+      </c>
+      <c r="K2">
+        <v>1.05460822160206</v>
+      </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.048131629401821</v>
+      </c>
+      <c r="M2">
+        <v>1.059946608730573</v>
+      </c>
+      <c r="N2">
+        <v>1.019296666986428</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.030773736584964</v>
+      </c>
+      <c r="D3">
+        <v>1.047347234080066</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>1.041263702693643</v>
+      </c>
+      <c r="F3">
+        <v>1.053259262559001</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.057235087873164</v>
+      </c>
+      <c r="J3">
+        <v>1.050459240072016</v>
+      </c>
+      <c r="K3">
+        <v>1.057408125050592</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>1.051394486879653</v>
+      </c>
+      <c r="M3">
+        <v>1.063253183751883</v>
+      </c>
+      <c r="N3">
+        <v>1.020290176206157</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.033714991161507</v>
+      </c>
+      <c r="D4">
+        <v>1.049645668231696</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>1.043870260568249</v>
+      </c>
+      <c r="F4">
+        <v>1.055882475438636</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.058198960099288</v>
+      </c>
+      <c r="J4">
+        <v>1.052293888843851</v>
+      </c>
+      <c r="K4">
+        <v>1.059179678402608</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>1.053466543314682</v>
+      </c>
+      <c r="M4">
+        <v>1.065350173952776</v>
+      </c>
+      <c r="N4">
+        <v>1.02091845613271</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.034937321441273</v>
+      </c>
+      <c r="D5">
+        <v>1.050601596459119</v>
+      </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>1.044955812208515</v>
+      </c>
+      <c r="F5">
+        <v>1.056974285346036</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.058597534506943</v>
+      </c>
+      <c r="J5">
+        <v>1.053055514287998</v>
+      </c>
+      <c r="K5">
+        <v>1.05991511062155</v>
+      </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.054328550641663</v>
+      </c>
+      <c r="M5">
+        <v>1.066221877067418</v>
+      </c>
+      <c r="N5">
+        <v>1.021179194079774</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.035141739633666</v>
+      </c>
+      <c r="D6">
+        <v>1.050761504781047</v>
+      </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.045137490808113</v>
+      </c>
+      <c r="F6">
+        <v>1.057156971591318</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.058664072537251</v>
+      </c>
+      <c r="J6">
+        <v>1.053182836671805</v>
+      </c>
+      <c r="K6">
+        <v>1.060038054003082</v>
+      </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.05447276135344</v>
+      </c>
+      <c r="M6">
+        <v>1.06636767009788</v>
+      </c>
+      <c r="N6">
+        <v>1.021222777132075</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.033731379017375</v>
+      </c>
+      <c r="D7">
+        <v>1.049658481549468</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>1.043884805539011</v>
+      </c>
+      <c r="F7">
+        <v>1.055897106933273</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.05820431172802</v>
+      </c>
+      <c r="J7">
+        <v>1.052304103285261</v>
+      </c>
+      <c r="K7">
+        <v>1.059189541567659</v>
+      </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>1.053478096801266</v>
+      </c>
+      <c r="M7">
+        <v>1.065361860063446</v>
+      </c>
+      <c r="N7">
+        <v>1.020921953319375</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.027714627428077</v>
+      </c>
+      <c r="D8">
+        <v>1.044959406518071</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>1.038560844688819</v>
+      </c>
+      <c r="F8">
+        <v>1.050536784149494</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.05622579580649</v>
+      </c>
+      <c r="J8">
+        <v>1.048548333420407</v>
+      </c>
+      <c r="K8">
+        <v>1.055562957971746</v>
+      </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>1.049242639620885</v>
+      </c>
+      <c r="M8">
+        <v>1.0610730984243</v>
+      </c>
+      <c r="N8">
+        <v>1.019635510975899</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.016617420465048</v>
+      </c>
+      <c r="D9">
+        <v>1.036321037413741</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>1.028822073927635</v>
+      </c>
+      <c r="F9">
+        <v>1.040708843168828</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.052513324918466</v>
+      </c>
+      <c r="J9">
+        <v>1.04159671927414</v>
+      </c>
+      <c r="K9">
+        <v>1.048851088547121</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>1.04146422152341</v>
+      </c>
+      <c r="M9">
+        <v>1.053174255221055</v>
+      </c>
+      <c r="N9">
+        <v>1.017252100991106</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.008849545239151</v>
+      </c>
+      <c r="D10">
+        <v>1.03029710710936</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>1.022063242818075</v>
+      </c>
+      <c r="F10">
+        <v>1.033872493453885</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.049874123053683</v>
+      </c>
+      <c r="J10">
+        <v>1.036716399430706</v>
+      </c>
+      <c r="K10">
+        <v>1.044140067758309</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>1.036045246466829</v>
+      </c>
+      <c r="M10">
+        <v>1.047655965328961</v>
+      </c>
+      <c r="N10">
+        <v>1.015577640767189</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>1.005389301481364</v>
+      </c>
+      <c r="D11">
+        <v>1.027619947405432</v>
+      </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>1.019067138361963</v>
+      </c>
+      <c r="F11">
+        <v>1.03083823830648</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.048689408227054</v>
+      </c>
+      <c r="J11">
+        <v>1.034539585246468</v>
+      </c>
+      <c r="K11">
+        <v>1.042039135063997</v>
+      </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.033638217000409</v>
+      </c>
+      <c r="M11">
+        <v>1.045201116760776</v>
+      </c>
+      <c r="N11">
+        <v>1.014830559947473</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>1.004088657222896</v>
+      </c>
+      <c r="D12">
+        <v>1.026614661510137</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>1.017943235746925</v>
+      </c>
+      <c r="F12">
+        <v>1.029699448048962</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.048242781379058</v>
+      </c>
+      <c r="J12">
+        <v>1.033720980099597</v>
+      </c>
+      <c r="K12">
+        <v>1.041249132830787</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>1.032734560597049</v>
+      </c>
+      <c r="M12">
+        <v>1.044278946671941</v>
+      </c>
+      <c r="N12">
+        <v>1.014549591391059</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>1.004368358645164</v>
+      </c>
+      <c r="D13">
+        <v>1.026830799687892</v>
+      </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>1.018184824854703</v>
+      </c>
+      <c r="F13">
+        <v>1.029944263518129</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.048338886292301</v>
+      </c>
+      <c r="J13">
+        <v>1.033897036129189</v>
+      </c>
+      <c r="K13">
+        <v>1.041419034045456</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>1.032928839431442</v>
+      </c>
+      <c r="M13">
+        <v>1.044477231240595</v>
+      </c>
+      <c r="N13">
+        <v>1.014610019793406</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>1.005282108065679</v>
+      </c>
+      <c r="D14">
+        <v>1.027537075145722</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>1.018974464414884</v>
+      </c>
+      <c r="F14">
+        <v>1.030744348534645</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.048652625602368</v>
+      </c>
+      <c r="J14">
+        <v>1.034472126808157</v>
+      </c>
+      <c r="K14">
+        <v>1.041974032256936</v>
+      </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>1.033563718752993</v>
+      </c>
+      <c r="M14">
+        <v>1.045125103668396</v>
+      </c>
+      <c r="N14">
+        <v>1.014807406739809</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.005843038720216</v>
+      </c>
+      <c r="D15">
+        <v>1.027970777681499</v>
+      </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>1.019459509783268</v>
+      </c>
+      <c r="F15">
+        <v>1.031235733835603</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.048845051549709</v>
+      </c>
+      <c r="J15">
+        <v>1.034825113791642</v>
+      </c>
+      <c r="K15">
+        <v>1.042314695836805</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>1.033953604790009</v>
+      </c>
+      <c r="M15">
+        <v>1.045522894720061</v>
+      </c>
+      <c r="N15">
+        <v>1.014928558638969</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.009077083540993</v>
+      </c>
+      <c r="D16">
+        <v>1.030473287512526</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>1.022260572071715</v>
+      </c>
+      <c r="F16">
+        <v>1.034072255715523</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.049951842569075</v>
+      </c>
+      <c r="J16">
+        <v>1.036859486839808</v>
+      </c>
+      <c r="K16">
+        <v>1.044278175935855</v>
+      </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.036203676763554</v>
+      </c>
+      <c r="M16">
+        <v>1.047817465424289</v>
+      </c>
+      <c r="N16">
+        <v>1.015626744546267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.011079258717524</v>
+      </c>
+      <c r="D17">
+        <v>1.032024267843659</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.023998605947666</v>
+      </c>
+      <c r="F17">
+        <v>1.035831286001899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.050634692795955</v>
+      </c>
+      <c r="J17">
+        <v>1.038118235782226</v>
+      </c>
+      <c r="K17">
+        <v>1.045493165451871</v>
+      </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.03759854205275</v>
+      </c>
+      <c r="M17">
+        <v>1.049238935302409</v>
+      </c>
+      <c r="N17">
+        <v>1.016058691010194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.01223782214198</v>
+      </c>
+      <c r="D18">
+        <v>1.03292233259107</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>1.025005708225043</v>
+      </c>
+      <c r="F18">
+        <v>1.036850194794811</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.051028962202194</v>
+      </c>
+      <c r="J18">
+        <v>1.038846340336795</v>
+      </c>
+      <c r="K18">
+        <v>1.046195992033632</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.038406332419447</v>
+      </c>
+      <c r="M18">
+        <v>1.05006178110473</v>
+      </c>
+      <c r="N18">
+        <v>1.016308524022945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.012631313887286</v>
+      </c>
+      <c r="D19">
+        <v>1.033227446478684</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>1.025347990718655</v>
+      </c>
+      <c r="F19">
+        <v>1.037196429127879</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.051162723042676</v>
+      </c>
+      <c r="J19">
+        <v>1.039093584242496</v>
+      </c>
+      <c r="K19">
+        <v>1.046434657671455</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.038680796396555</v>
+      </c>
+      <c r="M19">
+        <v>1.050341300953107</v>
+      </c>
+      <c r="N19">
+        <v>1.016393356719917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.010865409052505</v>
+      </c>
+      <c r="D20">
+        <v>1.031858548353105</v>
+      </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>1.023812824640755</v>
+      </c>
+      <c r="F20">
+        <v>1.035643297719492</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.050561847723279</v>
+      </c>
+      <c r="J20">
+        <v>1.03798381852287</v>
+      </c>
+      <c r="K20">
+        <v>1.045363417491015</v>
+      </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.037449490610992</v>
+      </c>
+      <c r="M20">
+        <v>1.049087077481881</v>
+      </c>
+      <c r="N20">
+        <v>1.016012567029268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>1.005013462470081</v>
+      </c>
+      <c r="D21">
+        <v>1.027329399198839</v>
+      </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.018742244166469</v>
+      </c>
+      <c r="F21">
+        <v>1.030509072383129</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.048560420872074</v>
+      </c>
+      <c r="J21">
+        <v>1.034303058130191</v>
+      </c>
+      <c r="K21">
+        <v>1.041810868537574</v>
+      </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.033377031026455</v>
+      </c>
+      <c r="M21">
+        <v>1.044934610779652</v>
+      </c>
+      <c r="N21">
+        <v>1.014749378319475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>1.001244814210311</v>
+      </c>
+      <c r="D22">
+        <v>1.024418560639018</v>
+      </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>1.015490119381881</v>
+      </c>
+      <c r="F22">
+        <v>1.027212768833236</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.047263877374154</v>
+      </c>
+      <c r="J22">
+        <v>1.031930468049198</v>
+      </c>
+      <c r="K22">
+        <v>1.039521320495031</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.030760835407828</v>
+      </c>
+      <c r="M22">
+        <v>1.042263747662393</v>
+      </c>
+      <c r="N22">
+        <v>1.013935000533065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>1.003251402374408</v>
+      </c>
+      <c r="D23">
+        <v>1.025967830192577</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>1.017220406221992</v>
+      </c>
+      <c r="F23">
+        <v>1.028966880239144</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.047954913478544</v>
+      </c>
+      <c r="J23">
+        <v>1.033193924401582</v>
+      </c>
+      <c r="K23">
+        <v>1.040740513491788</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.032153175901138</v>
+      </c>
+      <c r="M23">
+        <v>1.043685492082253</v>
+      </c>
+      <c r="N23">
+        <v>1.01436868502879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.010962067102312</v>
+      </c>
+      <c r="D24">
+        <v>1.031933450201609</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>1.023896791766967</v>
+      </c>
+      <c r="F24">
+        <v>1.035728263441591</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.050594775696379</v>
+      </c>
+      <c r="J24">
+        <v>1.038044574719483</v>
+      </c>
+      <c r="K24">
+        <v>1.045422063074176</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.037516858464714</v>
+      </c>
+      <c r="M24">
+        <v>1.049155714844739</v>
+      </c>
+      <c r="N24">
+        <v>1.016033414992289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.019548623177765</v>
+      </c>
+      <c r="D25">
+        <v>1.038599097573794</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>1.031384707873967</v>
+      </c>
+      <c r="F25">
+        <v>1.043297621179244</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.053501088289527</v>
+      </c>
+      <c r="J25">
+        <v>1.043435544564894</v>
+      </c>
+      <c r="K25">
+        <v>1.050626368752208</v>
+      </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>1.0435145973522</v>
+      </c>
+      <c r="M25">
+        <v>1.055259023244001</v>
+      </c>
+      <c r="N25">
+        <v>1.01788278906441</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.026133358165157</v>
+        <v>1.051620220994897</v>
       </c>
       <c r="D2">
-        <v>1.043726218479444</v>
+        <v>1.05902303866095</v>
       </c>
       <c r="E2">
-        <v>1.037166898424508</v>
+        <v>1.062443487835026</v>
       </c>
       <c r="F2">
-        <v>1.049131814345434</v>
+        <v>1.070938647436477</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055701524143087</v>
+        <v>1.048371382920678</v>
       </c>
       <c r="J2">
-        <v>1.047559563624716</v>
+        <v>1.056647133377737</v>
       </c>
       <c r="K2">
-        <v>1.05460822160206</v>
+        <v>1.061753675251373</v>
       </c>
       <c r="L2">
-        <v>1.048131629401821</v>
+        <v>1.065164820581668</v>
       </c>
       <c r="M2">
-        <v>1.059946608730573</v>
+        <v>1.073637150845718</v>
       </c>
       <c r="N2">
-        <v>1.019296666986428</v>
+        <v>1.022656987288773</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.030773736584964</v>
+        <v>1.05259577599296</v>
       </c>
       <c r="D3">
-        <v>1.047347234080066</v>
+        <v>1.059809775251081</v>
       </c>
       <c r="E3">
-        <v>1.041263702693643</v>
+        <v>1.063385249402204</v>
       </c>
       <c r="F3">
-        <v>1.053259262559001</v>
+        <v>1.071868032854722</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057235087873164</v>
+        <v>1.048644079059168</v>
       </c>
       <c r="J3">
-        <v>1.050459240072016</v>
+        <v>1.057272717665412</v>
       </c>
       <c r="K3">
-        <v>1.057408125050592</v>
+        <v>1.062354629252366</v>
       </c>
       <c r="L3">
-        <v>1.051394486879653</v>
+        <v>1.065921080010815</v>
       </c>
       <c r="M3">
-        <v>1.063253183751883</v>
+        <v>1.074382714789951</v>
       </c>
       <c r="N3">
-        <v>1.020290176206157</v>
+        <v>1.022868941944081</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.033714991161507</v>
+        <v>1.053227387565568</v>
       </c>
       <c r="D4">
-        <v>1.049645668231696</v>
+        <v>1.060319204840972</v>
       </c>
       <c r="E4">
-        <v>1.043870260568249</v>
+        <v>1.063995772037306</v>
       </c>
       <c r="F4">
-        <v>1.055882475438636</v>
+        <v>1.072470254568115</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058198960099288</v>
+        <v>1.048819585899043</v>
       </c>
       <c r="J4">
-        <v>1.052293888843851</v>
+        <v>1.057677241351699</v>
       </c>
       <c r="K4">
-        <v>1.059179678402608</v>
+        <v>1.062743185469584</v>
       </c>
       <c r="L4">
-        <v>1.053466543314682</v>
+        <v>1.066410940673796</v>
       </c>
       <c r="M4">
-        <v>1.065350173952776</v>
+        <v>1.074865358547082</v>
       </c>
       <c r="N4">
-        <v>1.02091845613271</v>
+        <v>1.023005909445344</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034937321441273</v>
+        <v>1.053493003019805</v>
       </c>
       <c r="D5">
-        <v>1.050601596459119</v>
+        <v>1.060533453654576</v>
       </c>
       <c r="E5">
-        <v>1.044955812208515</v>
+        <v>1.064252707356446</v>
       </c>
       <c r="F5">
-        <v>1.056974285346036</v>
+        <v>1.072723630132222</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058597534506943</v>
+        <v>1.048893142066973</v>
       </c>
       <c r="J5">
-        <v>1.053055514287998</v>
+        <v>1.057847237373633</v>
       </c>
       <c r="K5">
-        <v>1.05991511062155</v>
+        <v>1.062906461516984</v>
       </c>
       <c r="L5">
-        <v>1.054328550641663</v>
+        <v>1.066616999168737</v>
       </c>
       <c r="M5">
-        <v>1.066221877067418</v>
+        <v>1.075068312168168</v>
       </c>
       <c r="N5">
-        <v>1.021179194079774</v>
+        <v>1.023063446809675</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.035141739633666</v>
+        <v>1.053537606041014</v>
       </c>
       <c r="D6">
-        <v>1.050761504781047</v>
+        <v>1.060569431900373</v>
       </c>
       <c r="E6">
-        <v>1.045137490808113</v>
+        <v>1.064295863816385</v>
       </c>
       <c r="F6">
-        <v>1.057156971591318</v>
+        <v>1.072766184786927</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058664072537251</v>
+        <v>1.048905479151309</v>
       </c>
       <c r="J6">
-        <v>1.053182836671805</v>
+        <v>1.05787577657533</v>
       </c>
       <c r="K6">
-        <v>1.060038054003082</v>
+        <v>1.062933871978397</v>
       </c>
       <c r="L6">
-        <v>1.05447276135344</v>
+        <v>1.066651604365101</v>
       </c>
       <c r="M6">
-        <v>1.06636767009788</v>
+        <v>1.075102391886517</v>
       </c>
       <c r="N6">
-        <v>1.021222777132075</v>
+        <v>1.02307310500894</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.033731379017375</v>
+        <v>1.053230936395502</v>
       </c>
       <c r="D7">
-        <v>1.049658481549468</v>
+        <v>1.060322067313118</v>
       </c>
       <c r="E7">
-        <v>1.043884805539011</v>
+        <v>1.063999204154021</v>
       </c>
       <c r="F7">
-        <v>1.055897106933273</v>
+        <v>1.072473639394408</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05820431172802</v>
+        <v>1.048820569652346</v>
       </c>
       <c r="J7">
-        <v>1.052304103285261</v>
+        <v>1.057679513106174</v>
       </c>
       <c r="K7">
-        <v>1.059189541567659</v>
+        <v>1.062745367459999</v>
       </c>
       <c r="L7">
-        <v>1.053478096801266</v>
+        <v>1.06641369356311</v>
       </c>
       <c r="M7">
-        <v>1.065361860063446</v>
+        <v>1.07486807022742</v>
       </c>
       <c r="N7">
-        <v>1.020921953319375</v>
+        <v>1.023006678434873</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027714627428077</v>
+        <v>1.051949838898909</v>
       </c>
       <c r="D8">
-        <v>1.044959406518071</v>
+        <v>1.059288845048633</v>
       </c>
       <c r="E8">
-        <v>1.038560844688819</v>
+        <v>1.062761523755677</v>
       </c>
       <c r="F8">
-        <v>1.050536784149494</v>
+        <v>1.071252561409455</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05622579580649</v>
+        <v>1.048463737400333</v>
       </c>
       <c r="J8">
-        <v>1.048548333420407</v>
+        <v>1.056858608175626</v>
       </c>
       <c r="K8">
-        <v>1.055562957971746</v>
+        <v>1.06195683230851</v>
       </c>
       <c r="L8">
-        <v>1.049242639620885</v>
+        <v>1.065420295696933</v>
       </c>
       <c r="M8">
-        <v>1.0610730984243</v>
+        <v>1.073889072720648</v>
       </c>
       <c r="N8">
-        <v>1.019635510975899</v>
+        <v>1.022728655685827</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016617420465048</v>
+        <v>1.049695190092307</v>
       </c>
       <c r="D9">
-        <v>1.036321037413741</v>
+        <v>1.057470972898209</v>
       </c>
       <c r="E9">
-        <v>1.028822073927635</v>
+        <v>1.0605893605825</v>
       </c>
       <c r="F9">
-        <v>1.040708843168828</v>
+        <v>1.069107410461354</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052513324918466</v>
+        <v>1.047827731029815</v>
       </c>
       <c r="J9">
-        <v>1.04159671927414</v>
+        <v>1.05541002785822</v>
       </c>
       <c r="K9">
-        <v>1.048851088547121</v>
+        <v>1.060565064463566</v>
       </c>
       <c r="L9">
-        <v>1.04146422152341</v>
+        <v>1.063673757342059</v>
       </c>
       <c r="M9">
-        <v>1.053174255221055</v>
+        <v>1.072165639799769</v>
       </c>
       <c r="N9">
-        <v>1.017252100991106</v>
+        <v>1.022237371222895</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.008849545239151</v>
+        <v>1.048194023819818</v>
       </c>
       <c r="D10">
-        <v>1.03029710710936</v>
+        <v>1.056261008970491</v>
       </c>
       <c r="E10">
-        <v>1.022063242818075</v>
+        <v>1.059147236765545</v>
       </c>
       <c r="F10">
-        <v>1.033872493453885</v>
+        <v>1.067681784465728</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049874123053683</v>
+        <v>1.047398899150389</v>
       </c>
       <c r="J10">
-        <v>1.036716399430706</v>
+        <v>1.054442983000596</v>
       </c>
       <c r="K10">
-        <v>1.044140067758309</v>
+        <v>1.059635745648256</v>
       </c>
       <c r="L10">
-        <v>1.036045246466829</v>
+        <v>1.06251212163434</v>
       </c>
       <c r="M10">
-        <v>1.047655965328961</v>
+        <v>1.071017879871248</v>
       </c>
       <c r="N10">
-        <v>1.015577640767189</v>
+        <v>1.021908946415029</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.005389301481364</v>
+        <v>1.047544469582129</v>
       </c>
       <c r="D11">
-        <v>1.027619947405432</v>
+        <v>1.055737558428926</v>
       </c>
       <c r="E11">
-        <v>1.019067138361963</v>
+        <v>1.058524216676374</v>
       </c>
       <c r="F11">
-        <v>1.03083823830648</v>
+        <v>1.067065549417121</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048689408227054</v>
+        <v>1.047212070951339</v>
       </c>
       <c r="J11">
-        <v>1.034539585246468</v>
+        <v>1.05402393743549</v>
       </c>
       <c r="K11">
-        <v>1.042039135063997</v>
+        <v>1.059233001393866</v>
       </c>
       <c r="L11">
-        <v>1.033638217000409</v>
+        <v>1.062009779644931</v>
       </c>
       <c r="M11">
-        <v>1.045201116760776</v>
+        <v>1.070521183461397</v>
       </c>
       <c r="N11">
-        <v>1.014830559947473</v>
+        <v>1.021766525316179</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.004088657222896</v>
+        <v>1.047303266072897</v>
       </c>
       <c r="D12">
-        <v>1.026614661510137</v>
+        <v>1.05554319761148</v>
       </c>
       <c r="E12">
-        <v>1.017943235746925</v>
+        <v>1.058293015229259</v>
       </c>
       <c r="F12">
-        <v>1.029699448048962</v>
+        <v>1.06683681431109</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048242781379058</v>
+        <v>1.047142503624034</v>
       </c>
       <c r="J12">
-        <v>1.033720980099597</v>
+        <v>1.053868239605291</v>
       </c>
       <c r="K12">
-        <v>1.041249132830787</v>
+        <v>1.059083353513375</v>
       </c>
       <c r="L12">
-        <v>1.032734560597049</v>
+        <v>1.061823286744834</v>
       </c>
       <c r="M12">
-        <v>1.044278946671941</v>
+        <v>1.070336733045496</v>
       </c>
       <c r="N12">
-        <v>1.014549591391059</v>
+        <v>1.021713592417176</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.004368358645164</v>
+        <v>1.04735500187284</v>
       </c>
       <c r="D13">
-        <v>1.026830799687892</v>
+        <v>1.055584885389303</v>
       </c>
       <c r="E13">
-        <v>1.018184824854703</v>
+        <v>1.058342598931923</v>
       </c>
       <c r="F13">
-        <v>1.029944263518129</v>
+        <v>1.066885871416176</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048338886292301</v>
+        <v>1.047157433783752</v>
       </c>
       <c r="J13">
-        <v>1.033897036129189</v>
+        <v>1.05390163937224</v>
       </c>
       <c r="K13">
-        <v>1.041419034045456</v>
+        <v>1.059115455774428</v>
       </c>
       <c r="L13">
-        <v>1.032928839431442</v>
+        <v>1.061863285595633</v>
       </c>
       <c r="M13">
-        <v>1.044477231240595</v>
+        <v>1.070376296244986</v>
       </c>
       <c r="N13">
-        <v>1.014610019793406</v>
+        <v>1.021724948117458</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.005282108065679</v>
+        <v>1.047524530196008</v>
       </c>
       <c r="D14">
-        <v>1.027537075145722</v>
+        <v>1.055721491027367</v>
       </c>
       <c r="E14">
-        <v>1.018974464414884</v>
+        <v>1.058505101079958</v>
       </c>
       <c r="F14">
-        <v>1.030744348534645</v>
+        <v>1.067046638789548</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048652625602368</v>
+        <v>1.047206323980522</v>
       </c>
       <c r="J14">
-        <v>1.034472126808157</v>
+        <v>1.054011068331225</v>
       </c>
       <c r="K14">
-        <v>1.041974032256936</v>
+        <v>1.059220632483604</v>
       </c>
       <c r="L14">
-        <v>1.033563718752993</v>
+        <v>1.061994362052325</v>
       </c>
       <c r="M14">
-        <v>1.045125103668396</v>
+        <v>1.070505935813909</v>
       </c>
       <c r="N14">
-        <v>1.014807406739809</v>
+        <v>1.02176215050405</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.005843038720216</v>
+        <v>1.047628991467103</v>
       </c>
       <c r="D15">
-        <v>1.027970777681499</v>
+        <v>1.055805667846875</v>
       </c>
       <c r="E15">
-        <v>1.019459509783268</v>
+        <v>1.058605252670245</v>
       </c>
       <c r="F15">
-        <v>1.031235733835603</v>
+        <v>1.067145714380948</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048845051549709</v>
+        <v>1.047236424196062</v>
       </c>
       <c r="J15">
-        <v>1.034825113791642</v>
+        <v>1.054078485097633</v>
       </c>
       <c r="K15">
-        <v>1.042314695836805</v>
+        <v>1.059285428627188</v>
       </c>
       <c r="L15">
-        <v>1.033953604790009</v>
+        <v>1.062075135770126</v>
       </c>
       <c r="M15">
-        <v>1.045522894720061</v>
+        <v>1.070585816990065</v>
       </c>
       <c r="N15">
-        <v>1.014928558638969</v>
+        <v>1.021785067976642</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.009077083540993</v>
+        <v>1.048237142356029</v>
       </c>
       <c r="D16">
-        <v>1.030473287512526</v>
+        <v>1.056295758696555</v>
       </c>
       <c r="E16">
-        <v>1.022260572071715</v>
+        <v>1.05918861477246</v>
       </c>
       <c r="F16">
-        <v>1.034072255715523</v>
+        <v>1.067722704612122</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049951842569075</v>
+        <v>1.047411274316379</v>
       </c>
       <c r="J16">
-        <v>1.036859486839808</v>
+        <v>1.054470787232398</v>
       </c>
       <c r="K16">
-        <v>1.044278175935855</v>
+        <v>1.059662467298979</v>
       </c>
       <c r="L16">
-        <v>1.036203676763554</v>
+        <v>1.062545474283745</v>
       </c>
       <c r="M16">
-        <v>1.047817465424289</v>
+        <v>1.071050850196506</v>
       </c>
       <c r="N16">
-        <v>1.015626744546267</v>
+        <v>1.021918394017774</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011079258717524</v>
+        <v>1.048618743129019</v>
       </c>
       <c r="D17">
-        <v>1.032024267843659</v>
+        <v>1.056603306859409</v>
       </c>
       <c r="E17">
-        <v>1.023998605947666</v>
+        <v>1.059554925888151</v>
       </c>
       <c r="F17">
-        <v>1.035831286001899</v>
+        <v>1.068084922775036</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050634692795955</v>
+        <v>1.047520647958714</v>
       </c>
       <c r="J17">
-        <v>1.038118235782226</v>
+        <v>1.054716785853564</v>
       </c>
       <c r="K17">
-        <v>1.045493165451871</v>
+        <v>1.059898882417367</v>
       </c>
       <c r="L17">
-        <v>1.03759854205275</v>
+        <v>1.06284068101466</v>
       </c>
       <c r="M17">
-        <v>1.049238935302409</v>
+        <v>1.071342631908297</v>
       </c>
       <c r="N17">
-        <v>1.016058691010194</v>
+        <v>1.022001969670976</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.01223782214198</v>
+        <v>1.048841368807515</v>
       </c>
       <c r="D18">
-        <v>1.03292233259107</v>
+        <v>1.056782739947523</v>
       </c>
       <c r="E18">
-        <v>1.025005708225043</v>
+        <v>1.059768726761687</v>
       </c>
       <c r="F18">
-        <v>1.036850194794811</v>
+        <v>1.068296301699419</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051028962202194</v>
+        <v>1.047584333618815</v>
       </c>
       <c r="J18">
-        <v>1.038846340336795</v>
+        <v>1.054860242846763</v>
       </c>
       <c r="K18">
-        <v>1.046195992033632</v>
+        <v>1.060036746199838</v>
       </c>
       <c r="L18">
-        <v>1.038406332419447</v>
+        <v>1.063012933132285</v>
       </c>
       <c r="M18">
-        <v>1.05006178110473</v>
+        <v>1.071512851275243</v>
       </c>
       <c r="N18">
-        <v>1.016308524022945</v>
+        <v>1.022050697555418</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.012631313887286</v>
+        <v>1.048917285922787</v>
       </c>
       <c r="D19">
-        <v>1.033227446478684</v>
+        <v>1.056843929667887</v>
       </c>
       <c r="E19">
-        <v>1.025347990718655</v>
+        <v>1.05984165066905</v>
       </c>
       <c r="F19">
-        <v>1.037196429127879</v>
+        <v>1.068368393917504</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051162723042676</v>
+        <v>1.047606030089229</v>
       </c>
       <c r="J19">
-        <v>1.039093584242496</v>
+        <v>1.054909152890282</v>
       </c>
       <c r="K19">
-        <v>1.046434657671455</v>
+        <v>1.060083748538431</v>
       </c>
       <c r="L19">
-        <v>1.038680796396555</v>
+        <v>1.063071677311851</v>
       </c>
       <c r="M19">
-        <v>1.050341300953107</v>
+        <v>1.071570896404833</v>
       </c>
       <c r="N19">
-        <v>1.016393356719917</v>
+        <v>1.022067309037699</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010865409052505</v>
+        <v>1.0485777963799</v>
       </c>
       <c r="D20">
-        <v>1.031858548353105</v>
+        <v>1.056570305143022</v>
       </c>
       <c r="E20">
-        <v>1.023812824640755</v>
+        <v>1.059515609910058</v>
       </c>
       <c r="F20">
-        <v>1.035643297719492</v>
+        <v>1.068046049511108</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050561847723279</v>
+        <v>1.047508924590646</v>
       </c>
       <c r="J20">
-        <v>1.03798381852287</v>
+        <v>1.054690395610808</v>
       </c>
       <c r="K20">
-        <v>1.045363417491015</v>
+        <v>1.059873520736201</v>
       </c>
       <c r="L20">
-        <v>1.037449490610992</v>
+        <v>1.062809001599675</v>
       </c>
       <c r="M20">
-        <v>1.049087077481881</v>
+        <v>1.07131132358543</v>
       </c>
       <c r="N20">
-        <v>1.016012567029268</v>
+        <v>1.021993004899902</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.005013462470081</v>
+        <v>1.047474606396627</v>
       </c>
       <c r="D21">
-        <v>1.027329399198839</v>
+        <v>1.055681262074534</v>
       </c>
       <c r="E21">
-        <v>1.018742244166469</v>
+        <v>1.058457242276129</v>
       </c>
       <c r="F21">
-        <v>1.030509072383129</v>
+        <v>1.066999292322582</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048560420872074</v>
+        <v>1.047191931753517</v>
       </c>
       <c r="J21">
-        <v>1.034303058130191</v>
+        <v>1.053978845484448</v>
       </c>
       <c r="K21">
-        <v>1.041810868537574</v>
+        <v>1.059189661958144</v>
       </c>
       <c r="L21">
-        <v>1.033377031026455</v>
+        <v>1.061955760553845</v>
       </c>
       <c r="M21">
-        <v>1.044934610779652</v>
+        <v>1.070467758948829</v>
       </c>
       <c r="N21">
-        <v>1.014749378319475</v>
+        <v>1.021751196191466</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.001244814210311</v>
+        <v>1.046781391558721</v>
       </c>
       <c r="D22">
-        <v>1.024418560639018</v>
+        <v>1.0551227026612</v>
       </c>
       <c r="E22">
-        <v>1.015490119381881</v>
+        <v>1.057793054605185</v>
       </c>
       <c r="F22">
-        <v>1.027212768833236</v>
+        <v>1.066342092583048</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047263877374154</v>
+        <v>1.046991636547458</v>
       </c>
       <c r="J22">
-        <v>1.031930468049198</v>
+        <v>1.053531201933598</v>
       </c>
       <c r="K22">
-        <v>1.039521320495031</v>
+        <v>1.058759399684474</v>
       </c>
       <c r="L22">
-        <v>1.030760835407828</v>
+        <v>1.0614198689697</v>
       </c>
       <c r="M22">
-        <v>1.042263747662393</v>
+        <v>1.069937635762477</v>
       </c>
       <c r="N22">
-        <v>1.013935000533065</v>
+        <v>1.021598980177827</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.003251402374408</v>
+        <v>1.04714883930193</v>
       </c>
       <c r="D23">
-        <v>1.025967830192577</v>
+        <v>1.055418765644982</v>
       </c>
       <c r="E23">
-        <v>1.017220406221992</v>
+        <v>1.058145034144198</v>
       </c>
       <c r="F23">
-        <v>1.028966880239144</v>
+        <v>1.066690397278187</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047954913478544</v>
+        <v>1.04709791044838</v>
       </c>
       <c r="J23">
-        <v>1.033193924401582</v>
+        <v>1.053768531002224</v>
       </c>
       <c r="K23">
-        <v>1.040740513491788</v>
+        <v>1.05898751736929</v>
       </c>
       <c r="L23">
-        <v>1.032153175901138</v>
+        <v>1.061703900395328</v>
       </c>
       <c r="M23">
-        <v>1.043685492082253</v>
+        <v>1.070218639174609</v>
       </c>
       <c r="N23">
-        <v>1.01436868502879</v>
+        <v>1.021679689837353</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.010962067102312</v>
+        <v>1.048596298316097</v>
       </c>
       <c r="D24">
-        <v>1.031933450201609</v>
+        <v>1.056585217057791</v>
       </c>
       <c r="E24">
-        <v>1.023896791766967</v>
+        <v>1.059533374682573</v>
       </c>
       <c r="F24">
-        <v>1.035728263441591</v>
+        <v>1.068063614347042</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050594775696379</v>
+        <v>1.047514222216374</v>
       </c>
       <c r="J24">
-        <v>1.038044574719483</v>
+        <v>1.054702320317802</v>
       </c>
       <c r="K24">
-        <v>1.045422063074176</v>
+        <v>1.059884980690746</v>
       </c>
       <c r="L24">
-        <v>1.037516858464714</v>
+        <v>1.062823315969036</v>
       </c>
       <c r="M24">
-        <v>1.049155714844739</v>
+        <v>1.071325470382354</v>
       </c>
       <c r="N24">
-        <v>1.016033414992289</v>
+        <v>1.021997055757065</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019548623177765</v>
+        <v>1.050277733441323</v>
       </c>
       <c r="D25">
-        <v>1.038599097573794</v>
+        <v>1.057940597701079</v>
       </c>
       <c r="E25">
-        <v>1.031384707873967</v>
+        <v>1.06114986754957</v>
       </c>
       <c r="F25">
-        <v>1.043297621179244</v>
+        <v>1.069661200178359</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053501088289527</v>
+        <v>1.047993006904874</v>
       </c>
       <c r="J25">
-        <v>1.043435544564894</v>
+        <v>1.055784757563107</v>
       </c>
       <c r="K25">
-        <v>1.050626368752208</v>
+        <v>1.060925133313058</v>
       </c>
       <c r="L25">
-        <v>1.0435145973522</v>
+        <v>1.064124804058746</v>
       </c>
       <c r="M25">
-        <v>1.055259023244001</v>
+        <v>1.072610982375074</v>
       </c>
       <c r="N25">
-        <v>1.01788278906441</v>
+        <v>1.022364540539766</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051620220994897</v>
+        <v>1.026133358165157</v>
       </c>
       <c r="D2">
-        <v>1.05902303866095</v>
+        <v>1.043726218479445</v>
       </c>
       <c r="E2">
-        <v>1.062443487835026</v>
+        <v>1.037166898424509</v>
       </c>
       <c r="F2">
-        <v>1.070938647436477</v>
+        <v>1.049131814345435</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048371382920678</v>
+        <v>1.055701524143087</v>
       </c>
       <c r="J2">
-        <v>1.056647133377737</v>
+        <v>1.047559563624717</v>
       </c>
       <c r="K2">
-        <v>1.061753675251373</v>
+        <v>1.054608221602061</v>
       </c>
       <c r="L2">
-        <v>1.065164820581668</v>
+        <v>1.048131629401821</v>
       </c>
       <c r="M2">
-        <v>1.073637150845718</v>
+        <v>1.059946608730573</v>
       </c>
       <c r="N2">
-        <v>1.022656987288773</v>
+        <v>1.019296666986428</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05259577599296</v>
+        <v>1.030773736584964</v>
       </c>
       <c r="D3">
-        <v>1.059809775251081</v>
+        <v>1.047347234080066</v>
       </c>
       <c r="E3">
-        <v>1.063385249402204</v>
+        <v>1.041263702693644</v>
       </c>
       <c r="F3">
-        <v>1.071868032854722</v>
+        <v>1.053259262559002</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048644079059168</v>
+        <v>1.057235087873164</v>
       </c>
       <c r="J3">
-        <v>1.057272717665412</v>
+        <v>1.050459240072016</v>
       </c>
       <c r="K3">
-        <v>1.062354629252366</v>
+        <v>1.057408125050592</v>
       </c>
       <c r="L3">
-        <v>1.065921080010815</v>
+        <v>1.051394486879654</v>
       </c>
       <c r="M3">
-        <v>1.074382714789951</v>
+        <v>1.063253183751883</v>
       </c>
       <c r="N3">
-        <v>1.022868941944081</v>
+        <v>1.020290176206157</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053227387565568</v>
+        <v>1.033714991161506</v>
       </c>
       <c r="D4">
-        <v>1.060319204840972</v>
+        <v>1.049645668231695</v>
       </c>
       <c r="E4">
-        <v>1.063995772037306</v>
+        <v>1.043870260568248</v>
       </c>
       <c r="F4">
-        <v>1.072470254568115</v>
+        <v>1.055882475438634</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048819585899043</v>
+        <v>1.058198960099287</v>
       </c>
       <c r="J4">
-        <v>1.057677241351699</v>
+        <v>1.05229388884385</v>
       </c>
       <c r="K4">
-        <v>1.062743185469584</v>
+        <v>1.059179678402607</v>
       </c>
       <c r="L4">
-        <v>1.066410940673796</v>
+        <v>1.053466543314681</v>
       </c>
       <c r="M4">
-        <v>1.074865358547082</v>
+        <v>1.065350173952774</v>
       </c>
       <c r="N4">
-        <v>1.023005909445344</v>
+        <v>1.02091845613271</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053493003019805</v>
+        <v>1.034937321441272</v>
       </c>
       <c r="D5">
-        <v>1.060533453654576</v>
+        <v>1.050601596459118</v>
       </c>
       <c r="E5">
-        <v>1.064252707356446</v>
+        <v>1.044955812208514</v>
       </c>
       <c r="F5">
-        <v>1.072723630132222</v>
+        <v>1.056974285346035</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048893142066973</v>
+        <v>1.058597534506943</v>
       </c>
       <c r="J5">
-        <v>1.057847237373633</v>
+        <v>1.053055514287997</v>
       </c>
       <c r="K5">
-        <v>1.062906461516984</v>
+        <v>1.059915110621549</v>
       </c>
       <c r="L5">
-        <v>1.066616999168737</v>
+        <v>1.054328550641662</v>
       </c>
       <c r="M5">
-        <v>1.075068312168168</v>
+        <v>1.066221877067417</v>
       </c>
       <c r="N5">
-        <v>1.023063446809675</v>
+        <v>1.021179194079773</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053537606041014</v>
+        <v>1.035141739633666</v>
       </c>
       <c r="D6">
-        <v>1.060569431900373</v>
+        <v>1.050761504781048</v>
       </c>
       <c r="E6">
-        <v>1.064295863816385</v>
+        <v>1.045137490808114</v>
       </c>
       <c r="F6">
-        <v>1.072766184786927</v>
+        <v>1.057156971591319</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048905479151309</v>
+        <v>1.058664072537251</v>
       </c>
       <c r="J6">
-        <v>1.05787577657533</v>
+        <v>1.053182836671806</v>
       </c>
       <c r="K6">
-        <v>1.062933871978397</v>
+        <v>1.060038054003082</v>
       </c>
       <c r="L6">
-        <v>1.066651604365101</v>
+        <v>1.05447276135344</v>
       </c>
       <c r="M6">
-        <v>1.075102391886517</v>
+        <v>1.066367670097881</v>
       </c>
       <c r="N6">
-        <v>1.02307310500894</v>
+        <v>1.021222777132076</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053230936395502</v>
+        <v>1.033731379017374</v>
       </c>
       <c r="D7">
-        <v>1.060322067313118</v>
+        <v>1.049658481549468</v>
       </c>
       <c r="E7">
-        <v>1.063999204154021</v>
+        <v>1.04388480553901</v>
       </c>
       <c r="F7">
-        <v>1.072473639394408</v>
+        <v>1.055897106933272</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048820569652346</v>
+        <v>1.05820431172802</v>
       </c>
       <c r="J7">
-        <v>1.057679513106174</v>
+        <v>1.052304103285261</v>
       </c>
       <c r="K7">
-        <v>1.062745367459999</v>
+        <v>1.059189541567658</v>
       </c>
       <c r="L7">
-        <v>1.06641369356311</v>
+        <v>1.053478096801265</v>
       </c>
       <c r="M7">
-        <v>1.07486807022742</v>
+        <v>1.065361860063445</v>
       </c>
       <c r="N7">
-        <v>1.023006678434873</v>
+        <v>1.020921953319375</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051949838898909</v>
+        <v>1.027714627428076</v>
       </c>
       <c r="D8">
-        <v>1.059288845048633</v>
+        <v>1.04495940651807</v>
       </c>
       <c r="E8">
-        <v>1.062761523755677</v>
+        <v>1.038560844688819</v>
       </c>
       <c r="F8">
-        <v>1.071252561409455</v>
+        <v>1.050536784149493</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048463737400333</v>
+        <v>1.05622579580649</v>
       </c>
       <c r="J8">
-        <v>1.056858608175626</v>
+        <v>1.048548333420407</v>
       </c>
       <c r="K8">
-        <v>1.06195683230851</v>
+        <v>1.055562957971745</v>
       </c>
       <c r="L8">
-        <v>1.065420295696933</v>
+        <v>1.049242639620884</v>
       </c>
       <c r="M8">
-        <v>1.073889072720648</v>
+        <v>1.061073098424299</v>
       </c>
       <c r="N8">
-        <v>1.022728655685827</v>
+        <v>1.019635510975899</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049695190092307</v>
+        <v>1.016617420465047</v>
       </c>
       <c r="D9">
-        <v>1.057470972898209</v>
+        <v>1.03632103741374</v>
       </c>
       <c r="E9">
-        <v>1.0605893605825</v>
+        <v>1.028822073927634</v>
       </c>
       <c r="F9">
-        <v>1.069107410461354</v>
+        <v>1.040708843168827</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047827731029815</v>
+        <v>1.052513324918465</v>
       </c>
       <c r="J9">
-        <v>1.05541002785822</v>
+        <v>1.04159671927414</v>
       </c>
       <c r="K9">
-        <v>1.060565064463566</v>
+        <v>1.048851088547121</v>
       </c>
       <c r="L9">
-        <v>1.063673757342059</v>
+        <v>1.041464221523409</v>
       </c>
       <c r="M9">
-        <v>1.072165639799769</v>
+        <v>1.053174255221055</v>
       </c>
       <c r="N9">
-        <v>1.022237371222895</v>
+        <v>1.017252100991106</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048194023819818</v>
+        <v>1.008849545239152</v>
       </c>
       <c r="D10">
-        <v>1.056261008970491</v>
+        <v>1.030297107109361</v>
       </c>
       <c r="E10">
-        <v>1.059147236765545</v>
+        <v>1.022063242818076</v>
       </c>
       <c r="F10">
-        <v>1.067681784465728</v>
+        <v>1.033872493453886</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047398899150389</v>
+        <v>1.049874123053684</v>
       </c>
       <c r="J10">
-        <v>1.054442983000596</v>
+        <v>1.036716399430707</v>
       </c>
       <c r="K10">
-        <v>1.059635745648256</v>
+        <v>1.04414006775831</v>
       </c>
       <c r="L10">
-        <v>1.06251212163434</v>
+        <v>1.03604524646683</v>
       </c>
       <c r="M10">
-        <v>1.071017879871248</v>
+        <v>1.047655965328962</v>
       </c>
       <c r="N10">
-        <v>1.021908946415029</v>
+        <v>1.01557764076719</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047544469582129</v>
+        <v>1.005389301481365</v>
       </c>
       <c r="D11">
-        <v>1.055737558428926</v>
+        <v>1.027619947405432</v>
       </c>
       <c r="E11">
-        <v>1.058524216676374</v>
+        <v>1.019067138361964</v>
       </c>
       <c r="F11">
-        <v>1.067065549417121</v>
+        <v>1.030838238306481</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047212070951339</v>
+        <v>1.048689408227055</v>
       </c>
       <c r="J11">
-        <v>1.05402393743549</v>
+        <v>1.034539585246468</v>
       </c>
       <c r="K11">
-        <v>1.059233001393866</v>
+        <v>1.042039135063997</v>
       </c>
       <c r="L11">
-        <v>1.062009779644931</v>
+        <v>1.033638217000409</v>
       </c>
       <c r="M11">
-        <v>1.070521183461397</v>
+        <v>1.045201116760777</v>
       </c>
       <c r="N11">
-        <v>1.021766525316179</v>
+        <v>1.014830559947473</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.047303266072897</v>
+        <v>1.004088657222896</v>
       </c>
       <c r="D12">
-        <v>1.05554319761148</v>
+        <v>1.026614661510137</v>
       </c>
       <c r="E12">
-        <v>1.058293015229259</v>
+        <v>1.017943235746925</v>
       </c>
       <c r="F12">
-        <v>1.06683681431109</v>
+        <v>1.029699448048962</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047142503624034</v>
+        <v>1.048242781379058</v>
       </c>
       <c r="J12">
-        <v>1.053868239605291</v>
+        <v>1.033720980099597</v>
       </c>
       <c r="K12">
-        <v>1.059083353513375</v>
+        <v>1.041249132830788</v>
       </c>
       <c r="L12">
-        <v>1.061823286744834</v>
+        <v>1.032734560597049</v>
       </c>
       <c r="M12">
-        <v>1.070336733045496</v>
+        <v>1.044278946671941</v>
       </c>
       <c r="N12">
-        <v>1.021713592417176</v>
+        <v>1.014549591391059</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04735500187284</v>
+        <v>1.004368358645163</v>
       </c>
       <c r="D13">
-        <v>1.055584885389303</v>
+        <v>1.026830799687892</v>
       </c>
       <c r="E13">
-        <v>1.058342598931923</v>
+        <v>1.018184824854703</v>
       </c>
       <c r="F13">
-        <v>1.066885871416176</v>
+        <v>1.029944263518128</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047157433783752</v>
+        <v>1.048338886292301</v>
       </c>
       <c r="J13">
-        <v>1.05390163937224</v>
+        <v>1.033897036129188</v>
       </c>
       <c r="K13">
-        <v>1.059115455774428</v>
+        <v>1.041419034045455</v>
       </c>
       <c r="L13">
-        <v>1.061863285595633</v>
+        <v>1.032928839431441</v>
       </c>
       <c r="M13">
-        <v>1.070376296244986</v>
+        <v>1.044477231240594</v>
       </c>
       <c r="N13">
-        <v>1.021724948117458</v>
+        <v>1.014610019793406</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047524530196008</v>
+        <v>1.005282108065679</v>
       </c>
       <c r="D14">
-        <v>1.055721491027367</v>
+        <v>1.027537075145722</v>
       </c>
       <c r="E14">
-        <v>1.058505101079958</v>
+        <v>1.018974464414884</v>
       </c>
       <c r="F14">
-        <v>1.067046638789548</v>
+        <v>1.030744348534645</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047206323980522</v>
+        <v>1.048652625602368</v>
       </c>
       <c r="J14">
-        <v>1.054011068331225</v>
+        <v>1.034472126808157</v>
       </c>
       <c r="K14">
-        <v>1.059220632483604</v>
+        <v>1.041974032256937</v>
       </c>
       <c r="L14">
-        <v>1.061994362052325</v>
+        <v>1.033563718752994</v>
       </c>
       <c r="M14">
-        <v>1.070505935813909</v>
+        <v>1.045125103668396</v>
       </c>
       <c r="N14">
-        <v>1.02176215050405</v>
+        <v>1.014807406739809</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047628991467103</v>
+        <v>1.005843038720216</v>
       </c>
       <c r="D15">
-        <v>1.055805667846875</v>
+        <v>1.027970777681499</v>
       </c>
       <c r="E15">
-        <v>1.058605252670245</v>
+        <v>1.019459509783268</v>
       </c>
       <c r="F15">
-        <v>1.067145714380948</v>
+        <v>1.031235733835602</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047236424196062</v>
+        <v>1.048845051549709</v>
       </c>
       <c r="J15">
-        <v>1.054078485097633</v>
+        <v>1.034825113791642</v>
       </c>
       <c r="K15">
-        <v>1.059285428627188</v>
+        <v>1.042314695836805</v>
       </c>
       <c r="L15">
-        <v>1.062075135770126</v>
+        <v>1.033953604790009</v>
       </c>
       <c r="M15">
-        <v>1.070585816990065</v>
+        <v>1.045522894720061</v>
       </c>
       <c r="N15">
-        <v>1.021785067976642</v>
+        <v>1.014928558638969</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048237142356029</v>
+        <v>1.009077083540993</v>
       </c>
       <c r="D16">
-        <v>1.056295758696555</v>
+        <v>1.030473287512527</v>
       </c>
       <c r="E16">
-        <v>1.05918861477246</v>
+        <v>1.022260572071715</v>
       </c>
       <c r="F16">
-        <v>1.067722704612122</v>
+        <v>1.034072255715523</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047411274316379</v>
+        <v>1.049951842569076</v>
       </c>
       <c r="J16">
-        <v>1.054470787232398</v>
+        <v>1.036859486839808</v>
       </c>
       <c r="K16">
-        <v>1.059662467298979</v>
+        <v>1.044278175935856</v>
       </c>
       <c r="L16">
-        <v>1.062545474283745</v>
+        <v>1.036203676763555</v>
       </c>
       <c r="M16">
-        <v>1.071050850196506</v>
+        <v>1.04781746542429</v>
       </c>
       <c r="N16">
-        <v>1.021918394017774</v>
+        <v>1.015626744546267</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048618743129019</v>
+        <v>1.011079258717524</v>
       </c>
       <c r="D17">
-        <v>1.056603306859409</v>
+        <v>1.032024267843659</v>
       </c>
       <c r="E17">
-        <v>1.059554925888151</v>
+        <v>1.023998605947666</v>
       </c>
       <c r="F17">
-        <v>1.068084922775036</v>
+        <v>1.035831286001899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047520647958714</v>
+        <v>1.050634692795955</v>
       </c>
       <c r="J17">
-        <v>1.054716785853564</v>
+        <v>1.038118235782227</v>
       </c>
       <c r="K17">
-        <v>1.059898882417367</v>
+        <v>1.045493165451871</v>
       </c>
       <c r="L17">
-        <v>1.06284068101466</v>
+        <v>1.03759854205275</v>
       </c>
       <c r="M17">
-        <v>1.071342631908297</v>
+        <v>1.049238935302409</v>
       </c>
       <c r="N17">
-        <v>1.022001969670976</v>
+        <v>1.016058691010195</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048841368807515</v>
+        <v>1.01223782214198</v>
       </c>
       <c r="D18">
-        <v>1.056782739947523</v>
+        <v>1.032922332591071</v>
       </c>
       <c r="E18">
-        <v>1.059768726761687</v>
+        <v>1.025005708225044</v>
       </c>
       <c r="F18">
-        <v>1.068296301699419</v>
+        <v>1.036850194794812</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047584333618815</v>
+        <v>1.051028962202195</v>
       </c>
       <c r="J18">
-        <v>1.054860242846763</v>
+        <v>1.038846340336796</v>
       </c>
       <c r="K18">
-        <v>1.060036746199838</v>
+        <v>1.046195992033633</v>
       </c>
       <c r="L18">
-        <v>1.063012933132285</v>
+        <v>1.038406332419448</v>
       </c>
       <c r="M18">
-        <v>1.071512851275243</v>
+        <v>1.050061781104731</v>
       </c>
       <c r="N18">
-        <v>1.022050697555418</v>
+        <v>1.016308524022945</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048917285922787</v>
+        <v>1.012631313887287</v>
       </c>
       <c r="D19">
-        <v>1.056843929667887</v>
+        <v>1.033227446478684</v>
       </c>
       <c r="E19">
-        <v>1.05984165066905</v>
+        <v>1.025347990718656</v>
       </c>
       <c r="F19">
-        <v>1.068368393917504</v>
+        <v>1.03719642912788</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047606030089229</v>
+        <v>1.051162723042676</v>
       </c>
       <c r="J19">
-        <v>1.054909152890282</v>
+        <v>1.039093584242496</v>
       </c>
       <c r="K19">
-        <v>1.060083748538431</v>
+        <v>1.046434657671455</v>
       </c>
       <c r="L19">
-        <v>1.063071677311851</v>
+        <v>1.038680796396555</v>
       </c>
       <c r="M19">
-        <v>1.071570896404833</v>
+        <v>1.050341300953108</v>
       </c>
       <c r="N19">
-        <v>1.022067309037699</v>
+        <v>1.016393356719917</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0485777963799</v>
+        <v>1.010865409052506</v>
       </c>
       <c r="D20">
-        <v>1.056570305143022</v>
+        <v>1.031858548353106</v>
       </c>
       <c r="E20">
-        <v>1.059515609910058</v>
+        <v>1.023812824640755</v>
       </c>
       <c r="F20">
-        <v>1.068046049511108</v>
+        <v>1.035643297719493</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047508924590646</v>
+        <v>1.05056184772328</v>
       </c>
       <c r="J20">
-        <v>1.054690395610808</v>
+        <v>1.037983818522871</v>
       </c>
       <c r="K20">
-        <v>1.059873520736201</v>
+        <v>1.045363417491016</v>
       </c>
       <c r="L20">
-        <v>1.062809001599675</v>
+        <v>1.037449490610993</v>
       </c>
       <c r="M20">
-        <v>1.07131132358543</v>
+        <v>1.049087077481882</v>
       </c>
       <c r="N20">
-        <v>1.021993004899902</v>
+        <v>1.016012567029268</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047474606396627</v>
+        <v>1.005013462470082</v>
       </c>
       <c r="D21">
-        <v>1.055681262074534</v>
+        <v>1.02732939919884</v>
       </c>
       <c r="E21">
-        <v>1.058457242276129</v>
+        <v>1.018742244166469</v>
       </c>
       <c r="F21">
-        <v>1.066999292322582</v>
+        <v>1.030509072383129</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047191931753517</v>
+        <v>1.048560420872074</v>
       </c>
       <c r="J21">
-        <v>1.053978845484448</v>
+        <v>1.034303058130192</v>
       </c>
       <c r="K21">
-        <v>1.059189661958144</v>
+        <v>1.041810868537575</v>
       </c>
       <c r="L21">
-        <v>1.061955760553845</v>
+        <v>1.033377031026455</v>
       </c>
       <c r="M21">
-        <v>1.070467758948829</v>
+        <v>1.044934610779653</v>
       </c>
       <c r="N21">
-        <v>1.021751196191466</v>
+        <v>1.014749378319476</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046781391558721</v>
+        <v>1.001244814210312</v>
       </c>
       <c r="D22">
-        <v>1.0551227026612</v>
+        <v>1.024418560639019</v>
       </c>
       <c r="E22">
-        <v>1.057793054605185</v>
+        <v>1.015490119381882</v>
       </c>
       <c r="F22">
-        <v>1.066342092583048</v>
+        <v>1.027212768833237</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046991636547458</v>
+        <v>1.047263877374154</v>
       </c>
       <c r="J22">
-        <v>1.053531201933598</v>
+        <v>1.031930468049198</v>
       </c>
       <c r="K22">
-        <v>1.058759399684474</v>
+        <v>1.039521320495032</v>
       </c>
       <c r="L22">
-        <v>1.0614198689697</v>
+        <v>1.030760835407829</v>
       </c>
       <c r="M22">
-        <v>1.069937635762477</v>
+        <v>1.042263747662394</v>
       </c>
       <c r="N22">
-        <v>1.021598980177827</v>
+        <v>1.013935000533065</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04714883930193</v>
+        <v>1.003251402374408</v>
       </c>
       <c r="D23">
-        <v>1.055418765644982</v>
+        <v>1.025967830192577</v>
       </c>
       <c r="E23">
-        <v>1.058145034144198</v>
+        <v>1.017220406221992</v>
       </c>
       <c r="F23">
-        <v>1.066690397278187</v>
+        <v>1.028966880239144</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04709791044838</v>
+        <v>1.047954913478544</v>
       </c>
       <c r="J23">
-        <v>1.053768531002224</v>
+        <v>1.033193924401582</v>
       </c>
       <c r="K23">
-        <v>1.05898751736929</v>
+        <v>1.040740513491788</v>
       </c>
       <c r="L23">
-        <v>1.061703900395328</v>
+        <v>1.032153175901137</v>
       </c>
       <c r="M23">
-        <v>1.070218639174609</v>
+        <v>1.043685492082253</v>
       </c>
       <c r="N23">
-        <v>1.021679689837353</v>
+        <v>1.01436868502879</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048596298316097</v>
+        <v>1.010962067102311</v>
       </c>
       <c r="D24">
-        <v>1.056585217057791</v>
+        <v>1.031933450201608</v>
       </c>
       <c r="E24">
-        <v>1.059533374682573</v>
+        <v>1.023896791766967</v>
       </c>
       <c r="F24">
-        <v>1.068063614347042</v>
+        <v>1.035728263441591</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047514222216374</v>
+        <v>1.050594775696378</v>
       </c>
       <c r="J24">
-        <v>1.054702320317802</v>
+        <v>1.038044574719483</v>
       </c>
       <c r="K24">
-        <v>1.059884980690746</v>
+        <v>1.045422063074176</v>
       </c>
       <c r="L24">
-        <v>1.062823315969036</v>
+        <v>1.037516858464714</v>
       </c>
       <c r="M24">
-        <v>1.071325470382354</v>
+        <v>1.049155714844739</v>
       </c>
       <c r="N24">
-        <v>1.021997055757065</v>
+        <v>1.016033414992289</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050277733441323</v>
+        <v>1.019548623177765</v>
       </c>
       <c r="D25">
-        <v>1.057940597701079</v>
+        <v>1.038599097573795</v>
       </c>
       <c r="E25">
-        <v>1.06114986754957</v>
+        <v>1.031384707873968</v>
       </c>
       <c r="F25">
-        <v>1.069661200178359</v>
+        <v>1.043297621179244</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047993006904874</v>
+        <v>1.053501088289528</v>
       </c>
       <c r="J25">
-        <v>1.055784757563107</v>
+        <v>1.043435544564894</v>
       </c>
       <c r="K25">
-        <v>1.060925133313058</v>
+        <v>1.050626368752208</v>
       </c>
       <c r="L25">
-        <v>1.064124804058746</v>
+        <v>1.0435145973522</v>
       </c>
       <c r="M25">
-        <v>1.072610982375074</v>
+        <v>1.055259023244001</v>
       </c>
       <c r="N25">
-        <v>1.022364540539766</v>
+        <v>1.01788278906441</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026133358165157</v>
+        <v>1.025889262292562</v>
       </c>
       <c r="D2">
-        <v>1.043726218479445</v>
+        <v>1.042640001317781</v>
       </c>
       <c r="E2">
-        <v>1.037166898424509</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.049131814345435</v>
+        <v>1.044087100221854</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055701524143087</v>
+        <v>1.059172909934067</v>
       </c>
       <c r="J2">
-        <v>1.047559563624717</v>
+        <v>1.047322272501636</v>
       </c>
       <c r="K2">
-        <v>1.054608221602061</v>
+        <v>1.053535614416698</v>
       </c>
       <c r="L2">
-        <v>1.048131629401821</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.059946608730573</v>
+        <v>1.054964589416081</v>
       </c>
       <c r="N2">
-        <v>1.019296666986428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.019362996597687</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.052073084955887</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.048924517349717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030773736584964</v>
+        <v>1.029651812948687</v>
       </c>
       <c r="D3">
-        <v>1.047347234080066</v>
+        <v>1.045201959459326</v>
       </c>
       <c r="E3">
-        <v>1.041263702693644</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.053259262559002</v>
+        <v>1.046770572671511</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057235087873164</v>
+        <v>1.060266965314846</v>
       </c>
       <c r="J3">
-        <v>1.050459240072016</v>
+        <v>1.04936552980264</v>
       </c>
       <c r="K3">
-        <v>1.057408125050592</v>
+        <v>1.055287382689301</v>
       </c>
       <c r="L3">
-        <v>1.051394486879654</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.063253183751883</v>
+        <v>1.056838045853308</v>
       </c>
       <c r="N3">
-        <v>1.020290176206157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.020064074635759</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.053555775341291</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.05016050821554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033714991161506</v>
+        <v>1.032042514957625</v>
       </c>
       <c r="D4">
-        <v>1.049645668231695</v>
+        <v>1.04683353956736</v>
       </c>
       <c r="E4">
-        <v>1.043870260568248</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.055882475438634</v>
+        <v>1.048482810848512</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058198960099287</v>
+        <v>1.060952585161869</v>
       </c>
       <c r="J4">
-        <v>1.05229388884385</v>
+        <v>1.050660627374324</v>
       </c>
       <c r="K4">
-        <v>1.059179678402607</v>
+        <v>1.056397765929314</v>
       </c>
       <c r="L4">
-        <v>1.053466543314681</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.065350173952774</v>
+        <v>1.058029291784092</v>
       </c>
       <c r="N4">
-        <v>1.02091845613271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.020508686498975</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.054498549358696</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.050946505413521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034937321441272</v>
+        <v>1.033041884722012</v>
       </c>
       <c r="D5">
-        <v>1.050601596459118</v>
+        <v>1.047518427546704</v>
       </c>
       <c r="E5">
-        <v>1.044955812208514</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.056974285346035</v>
+        <v>1.049200802069362</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058597534506943</v>
+        <v>1.061238630808164</v>
       </c>
       <c r="J5">
-        <v>1.053055514287997</v>
+        <v>1.051203193948679</v>
       </c>
       <c r="K5">
-        <v>1.059915110621549</v>
+        <v>1.056864187443714</v>
       </c>
       <c r="L5">
-        <v>1.054328550641662</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.066221877067417</v>
+        <v>1.058528937927467</v>
       </c>
       <c r="N5">
-        <v>1.021179194079773</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.020696115714254</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.054893978189747</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.051283358585874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035141739633666</v>
+        <v>1.033214604279601</v>
       </c>
       <c r="D6">
-        <v>1.050761504781048</v>
+        <v>1.047639253290763</v>
       </c>
       <c r="E6">
-        <v>1.045137490808114</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.057156971591319</v>
+        <v>1.049325647070026</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058664072537251</v>
+        <v>1.061290078410873</v>
       </c>
       <c r="J6">
-        <v>1.053182836671806</v>
+        <v>1.05129931375502</v>
       </c>
       <c r="K6">
-        <v>1.060038054003082</v>
+        <v>1.056948307391813</v>
       </c>
       <c r="L6">
-        <v>1.05447276135344</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.066367670097881</v>
+        <v>1.0586171152663</v>
       </c>
       <c r="N6">
-        <v>1.021222777132076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.020730665292377</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.054963763280248</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.051351450150823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033731379017374</v>
+        <v>1.032070761772012</v>
       </c>
       <c r="D7">
-        <v>1.049658481549468</v>
+        <v>1.046859339859189</v>
       </c>
       <c r="E7">
-        <v>1.04388480553901</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.055897106933272</v>
+        <v>1.048504846742907</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05820431172802</v>
+        <v>1.060966443826778</v>
       </c>
       <c r="J7">
-        <v>1.052304103285261</v>
+        <v>1.050682406342702</v>
       </c>
       <c r="K7">
-        <v>1.059189541567658</v>
+        <v>1.056420465185722</v>
       </c>
       <c r="L7">
-        <v>1.053478096801265</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.065361860063445</v>
+        <v>1.058048274012712</v>
       </c>
       <c r="N7">
-        <v>1.020921953319375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.020519864226792</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.054513572235296</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.050982368368425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027714627428076</v>
+        <v>1.027188799905719</v>
       </c>
       <c r="D8">
-        <v>1.04495940651807</v>
+        <v>1.043532079154082</v>
       </c>
       <c r="E8">
-        <v>1.038560844688819</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.050536784149493</v>
+        <v>1.045014612343106</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05622579580649</v>
+        <v>1.059559827929987</v>
       </c>
       <c r="J8">
-        <v>1.048548333420407</v>
+        <v>1.048036671663484</v>
       </c>
       <c r="K8">
-        <v>1.055562957971745</v>
+        <v>1.054152981047168</v>
       </c>
       <c r="L8">
-        <v>1.049242639620884</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.061073098424299</v>
+        <v>1.055617493903344</v>
       </c>
       <c r="N8">
-        <v>1.019635510975899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.019612869954474</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.052589806779347</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.049383619370111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016617420465047</v>
+        <v>1.018211404815115</v>
       </c>
       <c r="D9">
-        <v>1.03632103741374</v>
+        <v>1.037434523209382</v>
       </c>
       <c r="E9">
-        <v>1.028822073927634</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.040708843168827</v>
+        <v>1.0386522898257</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052513324918465</v>
+        <v>1.056890008842443</v>
       </c>
       <c r="J9">
-        <v>1.04159671927414</v>
+        <v>1.043137064788711</v>
       </c>
       <c r="K9">
-        <v>1.048851088547121</v>
+        <v>1.049948105224648</v>
       </c>
       <c r="L9">
-        <v>1.041464221523409</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.053174255221055</v>
+        <v>1.051147911690502</v>
       </c>
       <c r="N9">
-        <v>1.017252100991106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.017928975644181</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.049052481840073</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046407436374571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008849545239152</v>
+        <v>1.012051593040813</v>
       </c>
       <c r="D10">
-        <v>1.030297107109361</v>
+        <v>1.033301022030686</v>
       </c>
       <c r="E10">
-        <v>1.022063242818076</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.033872493453886</v>
+        <v>1.034406265200122</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049874123053684</v>
+        <v>1.055037238965958</v>
       </c>
       <c r="J10">
-        <v>1.036716399430707</v>
+        <v>1.039795084056624</v>
       </c>
       <c r="K10">
-        <v>1.04414006775831</v>
+        <v>1.047093966697734</v>
       </c>
       <c r="L10">
-        <v>1.03604524646683</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.047655965328962</v>
+        <v>1.048180901366254</v>
       </c>
       <c r="N10">
-        <v>1.01557764076719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.016800390415885</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046755242729486</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.044406031613472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005389301481365</v>
+        <v>1.009940556737155</v>
       </c>
       <c r="D11">
-        <v>1.027619947405432</v>
+        <v>1.032094290287711</v>
       </c>
       <c r="E11">
-        <v>1.019067138361964</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.030838238306481</v>
+        <v>1.033579362299545</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048689408227055</v>
+        <v>1.054590916029133</v>
       </c>
       <c r="J11">
-        <v>1.034539585246468</v>
+        <v>1.03890556535175</v>
       </c>
       <c r="K11">
-        <v>1.042039135063997</v>
+        <v>1.046435315396383</v>
       </c>
       <c r="L11">
-        <v>1.033638217000409</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.045201116760777</v>
+        <v>1.047894638125958</v>
       </c>
       <c r="N11">
-        <v>1.014830559947473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.016642429749931</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046960678821793</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043972798765084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004088657222896</v>
+        <v>1.00934018711838</v>
       </c>
       <c r="D12">
-        <v>1.026614661510137</v>
+        <v>1.031833570020067</v>
       </c>
       <c r="E12">
-        <v>1.017943235746925</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.029699448048962</v>
+        <v>1.033621381494575</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048242781379058</v>
+        <v>1.054540418998958</v>
       </c>
       <c r="J12">
-        <v>1.033720980099597</v>
+        <v>1.038754447060196</v>
       </c>
       <c r="K12">
-        <v>1.041249132830788</v>
+        <v>1.046375286783418</v>
       </c>
       <c r="L12">
-        <v>1.032734560597049</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.044278946671941</v>
+        <v>1.048131603028827</v>
       </c>
       <c r="N12">
-        <v>1.014549591391059</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.016691201048604</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047471587474731</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043930357540713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004368358645163</v>
+        <v>1.009886325326635</v>
       </c>
       <c r="D13">
-        <v>1.026830799687892</v>
+        <v>1.032308882792558</v>
       </c>
       <c r="E13">
-        <v>1.018184824854703</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.029944263518128</v>
+        <v>1.034365428438403</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048338886292301</v>
+        <v>1.05481134579642</v>
       </c>
       <c r="J13">
-        <v>1.033897036129188</v>
+        <v>1.03918697877638</v>
       </c>
       <c r="K13">
-        <v>1.041419034045455</v>
+        <v>1.046800165197226</v>
       </c>
       <c r="L13">
-        <v>1.032928839431441</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.044477231240594</v>
+        <v>1.048820657205596</v>
       </c>
       <c r="N13">
-        <v>1.014610019793406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.016916448597204</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.048290859070442</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.044228291300702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005282108065679</v>
+        <v>1.010785074832391</v>
       </c>
       <c r="D14">
-        <v>1.027537075145722</v>
+        <v>1.032972848006239</v>
       </c>
       <c r="E14">
-        <v>1.018974464414884</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.030744348534645</v>
+        <v>1.035201390842613</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048652625602368</v>
+        <v>1.055144706839274</v>
       </c>
       <c r="J14">
-        <v>1.034472126808157</v>
+        <v>1.039750987920347</v>
       </c>
       <c r="K14">
-        <v>1.041974032256937</v>
+        <v>1.0473148184512</v>
       </c>
       <c r="L14">
-        <v>1.033563718752994</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.045125103668396</v>
+        <v>1.0495047918241</v>
       </c>
       <c r="N14">
-        <v>1.014807406739809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.017151797545982</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.049003749552792</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044593566925186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005843038720216</v>
+        <v>1.011264847833136</v>
       </c>
       <c r="D15">
-        <v>1.027970777681499</v>
+        <v>1.033308200630995</v>
       </c>
       <c r="E15">
-        <v>1.019459509783268</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.031235733835602</v>
+        <v>1.035578070367048</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048845051549709</v>
+        <v>1.05530428596811</v>
       </c>
       <c r="J15">
-        <v>1.034825113791642</v>
+        <v>1.040028089183554</v>
       </c>
       <c r="K15">
-        <v>1.042314695836805</v>
+        <v>1.047559574845803</v>
       </c>
       <c r="L15">
-        <v>1.033953604790009</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.045522894720061</v>
+        <v>1.049790461602854</v>
       </c>
       <c r="N15">
-        <v>1.014928558638969</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.017254517290046</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.049266836118122</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.044772411657696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009077083540993</v>
+        <v>1.013778290698973</v>
       </c>
       <c r="D16">
-        <v>1.030473287512527</v>
+        <v>1.034980773889804</v>
       </c>
       <c r="E16">
-        <v>1.022260572071715</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.034072255715523</v>
+        <v>1.037272549900496</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049951842569076</v>
+        <v>1.056059893653351</v>
       </c>
       <c r="J16">
-        <v>1.036859486839808</v>
+        <v>1.041380642795695</v>
       </c>
       <c r="K16">
-        <v>1.044278175935856</v>
+        <v>1.048711002798335</v>
       </c>
       <c r="L16">
-        <v>1.036203676763555</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.04781746542429</v>
+        <v>1.050965138991719</v>
       </c>
       <c r="N16">
-        <v>1.015626744546267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.017697655085012</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.050156849183651</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.04558961872025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011079258717524</v>
+        <v>1.015238869280575</v>
       </c>
       <c r="D17">
-        <v>1.032024267843659</v>
+        <v>1.035918763356893</v>
       </c>
       <c r="E17">
-        <v>1.023998605947666</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.035831286001899</v>
+        <v>1.038131460364093</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050634692795955</v>
+        <v>1.056463425660495</v>
       </c>
       <c r="J17">
-        <v>1.038118235782227</v>
+        <v>1.042123778472821</v>
       </c>
       <c r="K17">
-        <v>1.045493165451871</v>
+        <v>1.049325012083054</v>
       </c>
       <c r="L17">
-        <v>1.03759854205275</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.049238935302409</v>
+        <v>1.051502382833028</v>
       </c>
       <c r="N17">
-        <v>1.016058691010195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.017915549711163</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.050453401689931</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.046026289896526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01223782214198</v>
+        <v>1.015898506250458</v>
       </c>
       <c r="D18">
-        <v>1.032922332591071</v>
+        <v>1.036271976552556</v>
       </c>
       <c r="E18">
-        <v>1.025005708225044</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.036850194794812</v>
+        <v>1.038287902653287</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051028962202195</v>
+        <v>1.056578285571998</v>
       </c>
       <c r="J18">
-        <v>1.038846340336796</v>
+        <v>1.0423740558923</v>
       </c>
       <c r="K18">
-        <v>1.046195992033633</v>
+        <v>1.049492662808605</v>
       </c>
       <c r="L18">
-        <v>1.038406332419448</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.050061781104731</v>
+        <v>1.051476918640971</v>
       </c>
       <c r="N18">
-        <v>1.016308524022945</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.017937144460204</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.050197530961124</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.046133335875526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012631313887287</v>
+        <v>1.01582523789616</v>
       </c>
       <c r="D19">
-        <v>1.033227446478684</v>
+        <v>1.036093121236656</v>
       </c>
       <c r="E19">
-        <v>1.025347990718656</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.03719642912788</v>
+        <v>1.037797927658905</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051162723042676</v>
+        <v>1.056430969431678</v>
       </c>
       <c r="J19">
-        <v>1.039093584242496</v>
+        <v>1.04217222107961</v>
       </c>
       <c r="K19">
-        <v>1.046434657671455</v>
+        <v>1.049255261009571</v>
       </c>
       <c r="L19">
-        <v>1.038680796396555</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.050341300953108</v>
+        <v>1.050933405161008</v>
       </c>
       <c r="N19">
-        <v>1.016393356719917</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.017779555183806</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.049445271921584</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.045971802355703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010865409052506</v>
+        <v>1.013689216247103</v>
       </c>
       <c r="D20">
-        <v>1.031858548353106</v>
+        <v>1.034415547788337</v>
       </c>
       <c r="E20">
-        <v>1.023812824640755</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.035643297719493</v>
+        <v>1.035540860144839</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05056184772328</v>
+        <v>1.055548219549071</v>
       </c>
       <c r="J20">
-        <v>1.037983818522871</v>
+        <v>1.040702452940764</v>
       </c>
       <c r="K20">
-        <v>1.045363417491016</v>
+        <v>1.047879081717135</v>
       </c>
       <c r="L20">
-        <v>1.037449490610993</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.049087077481882</v>
+        <v>1.048986285802686</v>
       </c>
       <c r="N20">
-        <v>1.016012567029268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.017118332932801</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.047382168458576</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.045002690218324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005013462470082</v>
+        <v>1.008937466898512</v>
       </c>
       <c r="D21">
-        <v>1.02732939919884</v>
+        <v>1.031192930169273</v>
       </c>
       <c r="E21">
-        <v>1.018742244166469</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.030509072383129</v>
+        <v>1.032158974848652</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048560420872074</v>
+        <v>1.054061518831826</v>
       </c>
       <c r="J21">
-        <v>1.034303058130192</v>
+        <v>1.038066211273113</v>
       </c>
       <c r="K21">
-        <v>1.041810868537575</v>
+        <v>1.045606497781701</v>
       </c>
       <c r="L21">
-        <v>1.033377031026455</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.044934610779653</v>
+        <v>1.046555667060695</v>
       </c>
       <c r="N21">
-        <v>1.014749378319476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.016199938930872</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.045418061655262</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.043399118090513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001244814210312</v>
+        <v>1.005911541009725</v>
       </c>
       <c r="D22">
-        <v>1.024418560639019</v>
+        <v>1.029152698093041</v>
       </c>
       <c r="E22">
-        <v>1.015490119381882</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.027212768833237</v>
+        <v>1.030052279988509</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047263877374154</v>
+        <v>1.053112281300015</v>
       </c>
       <c r="J22">
-        <v>1.031930468049198</v>
+        <v>1.036394445561851</v>
       </c>
       <c r="K22">
-        <v>1.039521320495032</v>
+        <v>1.044167942439357</v>
       </c>
       <c r="L22">
-        <v>1.030760835407829</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.042263747662394</v>
+        <v>1.045051013070547</v>
       </c>
       <c r="N22">
-        <v>1.013935000533065</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.015621728818975</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.044227235991387</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.04236866776746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003251402374408</v>
+        <v>1.007507227820478</v>
       </c>
       <c r="D23">
-        <v>1.025967830192577</v>
+        <v>1.030222271477775</v>
       </c>
       <c r="E23">
-        <v>1.017220406221992</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.028966880239144</v>
+        <v>1.031160626175658</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047954913478544</v>
+        <v>1.053608883862054</v>
       </c>
       <c r="J23">
-        <v>1.033193924401582</v>
+        <v>1.037270427205134</v>
       </c>
       <c r="K23">
-        <v>1.040740513491788</v>
+        <v>1.044918370611357</v>
       </c>
       <c r="L23">
-        <v>1.032153175901137</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.043685492082253</v>
+        <v>1.045839944444543</v>
       </c>
       <c r="N23">
-        <v>1.01436868502879</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.015920649671626</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044851618804127</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042889713082524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010962067102311</v>
+        <v>1.013683989282338</v>
       </c>
       <c r="D24">
-        <v>1.031933450201608</v>
+        <v>1.034383220016861</v>
       </c>
       <c r="E24">
-        <v>1.023896791766967</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.035728263441591</v>
+        <v>1.035473439395748</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050594775696378</v>
+        <v>1.055519635745974</v>
       </c>
       <c r="J24">
-        <v>1.038044574719483</v>
+        <v>1.040665273624899</v>
       </c>
       <c r="K24">
-        <v>1.045422063074176</v>
+        <v>1.047832283776873</v>
       </c>
       <c r="L24">
-        <v>1.037516858464714</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.049155714844739</v>
+        <v>1.048904979819922</v>
       </c>
       <c r="N24">
-        <v>1.016033414992289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.017086294252076</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.047277370263622</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044942529088654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019548623177765</v>
+        <v>1.020600064710209</v>
       </c>
       <c r="D25">
-        <v>1.038599097573795</v>
+        <v>1.039063069225488</v>
       </c>
       <c r="E25">
-        <v>1.031384707873968</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.043297621179244</v>
+        <v>1.04034080176858</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053501088289528</v>
+        <v>1.057617574955239</v>
       </c>
       <c r="J25">
-        <v>1.043435544564894</v>
+        <v>1.044453501152473</v>
       </c>
       <c r="K25">
-        <v>1.050626368752208</v>
+        <v>1.051083802442646</v>
       </c>
       <c r="L25">
-        <v>1.0435145973522</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.055259023244001</v>
+        <v>1.052343568153755</v>
       </c>
       <c r="N25">
-        <v>1.01788278906441</v>
+        <v>1.01838756591947</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.049998752107612</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047238636864241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025889262292562</v>
+        <v>1.023720593212386</v>
       </c>
       <c r="D2">
-        <v>1.042640001317781</v>
+        <v>1.039911718947021</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.044087100221854</v>
+        <v>1.042084778509246</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.059172909934067</v>
+        <v>1.057596606608254</v>
       </c>
       <c r="J2">
-        <v>1.047322272501636</v>
+        <v>1.045214254850966</v>
       </c>
       <c r="K2">
-        <v>1.053535614416698</v>
+        <v>1.050841673072518</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.054964589416081</v>
+        <v>1.052987362049868</v>
       </c>
       <c r="N2">
-        <v>1.019362996597687</v>
+        <v>1.019012873756993</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.052073084955887</v>
+        <v>1.050508265037408</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.048924517349717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04702837569346</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025449352648056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029651812948687</v>
+        <v>1.027276302768135</v>
       </c>
       <c r="D3">
-        <v>1.045201959459326</v>
+        <v>1.042244839233633</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.046770572671511</v>
+        <v>1.044597113708213</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.060266965314846</v>
+        <v>1.058549522919396</v>
       </c>
       <c r="J3">
-        <v>1.04936552980264</v>
+        <v>1.047050032090953</v>
       </c>
       <c r="K3">
-        <v>1.055287382689301</v>
+        <v>1.052364283053767</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.056838045853308</v>
+        <v>1.054689476123076</v>
       </c>
       <c r="N3">
-        <v>1.020064074635759</v>
+        <v>1.019506498145043</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053555775341291</v>
+        <v>1.051855354622245</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.05016050821554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048102061188062</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025759985739801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032042514957625</v>
+        <v>1.029536889984198</v>
       </c>
       <c r="D4">
-        <v>1.04683353956736</v>
+        <v>1.043731899526803</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.048482810848512</v>
+        <v>1.046201439418107</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060952585161869</v>
+        <v>1.059145871008722</v>
       </c>
       <c r="J4">
-        <v>1.050660627374324</v>
+        <v>1.04821407170356</v>
       </c>
       <c r="K4">
-        <v>1.056397765929314</v>
+        <v>1.053329684502533</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.058029291784092</v>
+        <v>1.055772485079476</v>
       </c>
       <c r="N4">
-        <v>1.020508686498975</v>
+        <v>1.019819790306288</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054498549358696</v>
+        <v>1.052712469880454</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050946505413521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.048785631276696</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025954691833793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033041884722012</v>
+        <v>1.030481886199137</v>
       </c>
       <c r="D5">
-        <v>1.047518427546704</v>
+        <v>1.044356425413518</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.049200802069362</v>
+        <v>1.046874370087783</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061238630808164</v>
+        <v>1.059394566626206</v>
       </c>
       <c r="J5">
-        <v>1.051203193948679</v>
+        <v>1.048701765320058</v>
       </c>
       <c r="K5">
-        <v>1.056864187443714</v>
+        <v>1.053735497401216</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.058528937927467</v>
+        <v>1.056226895260707</v>
       </c>
       <c r="N5">
-        <v>1.020696115714254</v>
+        <v>1.019951827893901</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.054893978189747</v>
+        <v>1.053072099025538</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051283358585874</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049080346395564</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026036764471661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033214604279601</v>
+        <v>1.030644884249233</v>
       </c>
       <c r="D6">
-        <v>1.047639253290763</v>
+        <v>1.044466643718236</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.049325647070026</v>
+        <v>1.046991266730677</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061290078410873</v>
+        <v>1.05943941138667</v>
       </c>
       <c r="J6">
-        <v>1.05129931375502</v>
+        <v>1.048788087145999</v>
       </c>
       <c r="K6">
-        <v>1.056948307391813</v>
+        <v>1.053808970303552</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.0586171152663</v>
+        <v>1.056307096515931</v>
       </c>
       <c r="N6">
-        <v>1.020730665292377</v>
+        <v>1.019976059979012</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054963763280248</v>
+        <v>1.053135571856805</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051351450150823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04914178409045</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026052527938763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032070761772012</v>
+        <v>1.029572659396481</v>
       </c>
       <c r="D7">
-        <v>1.046859339859189</v>
+        <v>1.043762623752335</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.048504846742907</v>
+        <v>1.046227755937962</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060966443826778</v>
+        <v>1.059163481711824</v>
       </c>
       <c r="J7">
-        <v>1.050682406342702</v>
+        <v>1.04824316965736</v>
       </c>
       <c r="K7">
-        <v>1.056420465185722</v>
+        <v>1.05335724106937</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.058048274012712</v>
+        <v>1.055795692316821</v>
       </c>
       <c r="N7">
-        <v>1.020519864226792</v>
+        <v>1.019856634723679</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054513572235296</v>
+        <v>1.052730836548192</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050982368368425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048826939424799</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025964012517652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027188799905719</v>
+        <v>1.024977859313059</v>
       </c>
       <c r="D8">
-        <v>1.043532079154082</v>
+        <v>1.040745860831646</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.045014612343106</v>
+        <v>1.042970912658981</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.059559827929987</v>
+        <v>1.05795016122019</v>
       </c>
       <c r="J8">
-        <v>1.048036671663484</v>
+        <v>1.04588551015506</v>
       </c>
       <c r="K8">
-        <v>1.054152981047168</v>
+        <v>1.051400802218703</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.055617493903344</v>
+        <v>1.053598652196832</v>
       </c>
       <c r="N8">
-        <v>1.019612869954474</v>
+        <v>1.01927751944926</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052589806779347</v>
+        <v>1.050992053449581</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049383619370111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047448580009893</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025570867050698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018211404815115</v>
+        <v>1.016507923047352</v>
       </c>
       <c r="D9">
-        <v>1.037434523209382</v>
+        <v>1.035203689478674</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.0386522898257</v>
+        <v>1.037025421140874</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.056890008842443</v>
+        <v>1.055622463191819</v>
       </c>
       <c r="J9">
-        <v>1.043137064788711</v>
+        <v>1.041490915133012</v>
       </c>
       <c r="K9">
-        <v>1.049948105224648</v>
+        <v>1.047750312125541</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.051147911690502</v>
+        <v>1.04954504879737</v>
       </c>
       <c r="N9">
-        <v>1.017928975644181</v>
+        <v>1.018104964933696</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049052481840073</v>
+        <v>1.047783937065461</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046407436374571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044864090318959</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024811339127381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012051593040813</v>
+        <v>1.010739262626123</v>
       </c>
       <c r="D10">
-        <v>1.033301022030686</v>
+        <v>1.031480064286031</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.034406265200122</v>
+        <v>1.033090868572117</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.055037238965958</v>
+        <v>1.054024388464319</v>
       </c>
       <c r="J10">
-        <v>1.039795084056624</v>
+        <v>1.038533179488565</v>
       </c>
       <c r="K10">
-        <v>1.047093966697734</v>
+        <v>1.045303283591934</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.048180901366254</v>
+        <v>1.046887300166413</v>
       </c>
       <c r="N10">
-        <v>1.016800390415885</v>
+        <v>1.01744250117538</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046755242729486</v>
+        <v>1.045731514823546</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044406031613472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043152215256153</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024306711917439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009940556737155</v>
+        <v>1.008756504394106</v>
       </c>
       <c r="D11">
-        <v>1.032094290287711</v>
+        <v>1.030397277995937</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.033579362299545</v>
+        <v>1.03236170288104</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.054590916029133</v>
+        <v>1.053657822565044</v>
       </c>
       <c r="J11">
-        <v>1.03890556535175</v>
+        <v>1.03776948581717</v>
       </c>
       <c r="K11">
-        <v>1.046435315396383</v>
+        <v>1.044767844834263</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.047894638125958</v>
+        <v>1.046698084313557</v>
       </c>
       <c r="N11">
-        <v>1.016642429749931</v>
+        <v>1.017552895392849</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046960678821793</v>
+        <v>1.046014219678952</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043972798765084</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042809321631721</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024276897658986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00934018711838</v>
+        <v>1.008173971684352</v>
       </c>
       <c r="D12">
-        <v>1.031833570020067</v>
+        <v>1.030152019091644</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.033621381494575</v>
+        <v>1.032417254681287</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.054540418998958</v>
+        <v>1.053618164018863</v>
       </c>
       <c r="J12">
-        <v>1.038754447060196</v>
+        <v>1.037636378287323</v>
       </c>
       <c r="K12">
-        <v>1.046375286783418</v>
+        <v>1.044723488563916</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.048131603028827</v>
+        <v>1.046948673333842</v>
       </c>
       <c r="N12">
-        <v>1.016691201048604</v>
+        <v>1.017673778367562</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047471587474731</v>
+        <v>1.046536216178884</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043930357540713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042777961566928</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024317314221941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009886325326635</v>
+        <v>1.008637878552983</v>
       </c>
       <c r="D13">
-        <v>1.032308882792558</v>
+        <v>1.030549340353574</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.034365428438403</v>
+        <v>1.033101642515975</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05481134579642</v>
+        <v>1.053839508485313</v>
       </c>
       <c r="J13">
-        <v>1.03918697877638</v>
+        <v>1.037989812471331</v>
       </c>
       <c r="K13">
-        <v>1.046800165197226</v>
+        <v>1.045071617702285</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.048820657205596</v>
+        <v>1.047579004890604</v>
       </c>
       <c r="N13">
-        <v>1.016916448597204</v>
+        <v>1.017784976848997</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048290859070442</v>
+        <v>1.047309297441921</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044228291300702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043021384651017</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024423688232758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010785074832391</v>
+        <v>1.009436385826802</v>
       </c>
       <c r="D14">
-        <v>1.032972848006239</v>
+        <v>1.031118894805753</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.035201390842613</v>
+        <v>1.033864697962203</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.055144706839274</v>
+        <v>1.054112355452047</v>
       </c>
       <c r="J14">
-        <v>1.039750987920347</v>
+        <v>1.038456902929884</v>
       </c>
       <c r="K14">
-        <v>1.0473148184512</v>
+        <v>1.045493116179166</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.0495047918241</v>
+        <v>1.04819120731018</v>
       </c>
       <c r="N14">
-        <v>1.017151797545982</v>
+        <v>1.01786015081751</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.049003749552792</v>
+        <v>1.047965462000888</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044593566925186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04332093221984</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024528430829725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011264847833136</v>
+        <v>1.009869001522008</v>
       </c>
       <c r="D15">
-        <v>1.033308200630995</v>
+        <v>1.031410015792507</v>
       </c>
       <c r="E15">
         <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.035578070367048</v>
+        <v>1.034207033888537</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05530428596811</v>
+        <v>1.05424343544562</v>
       </c>
       <c r="J15">
-        <v>1.040028089183554</v>
+        <v>1.038688263292159</v>
       </c>
       <c r="K15">
-        <v>1.047559574845803</v>
+        <v>1.045694160068417</v>
       </c>
       <c r="L15">
         <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.049790461602854</v>
+        <v>1.048442944993045</v>
       </c>
       <c r="N15">
-        <v>1.017254517290046</v>
+        <v>1.017884381503964</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049266836118122</v>
+        <v>1.048201755623408</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044772411657696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043469442520053</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024573517788927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013778290698973</v>
+        <v>1.012167513709053</v>
       </c>
       <c r="D16">
-        <v>1.034980773889804</v>
+        <v>1.032879155503698</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.037272549900496</v>
+        <v>1.035743171818895</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.056059893653351</v>
+        <v>1.054867821642628</v>
       </c>
       <c r="J16">
-        <v>1.041380642795695</v>
+        <v>1.039831291144429</v>
       </c>
       <c r="K16">
-        <v>1.048711002798335</v>
+        <v>1.046644090088434</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.050965138991719</v>
+        <v>1.049460855427611</v>
       </c>
       <c r="N16">
-        <v>1.017697655085012</v>
+        <v>1.017972595272256</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.050156849183651</v>
+        <v>1.048967826084369</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04558961872025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.044144487137653</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024765226467615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015238869280575</v>
+        <v>1.013525342528883</v>
       </c>
       <c r="D17">
-        <v>1.035918763356893</v>
+        <v>1.033716518248245</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.038131460364093</v>
+        <v>1.036524017080009</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.056463425660495</v>
+        <v>1.055206963858832</v>
       </c>
       <c r="J17">
-        <v>1.042123778472821</v>
+        <v>1.040473503687451</v>
       </c>
       <c r="K17">
-        <v>1.049325012083054</v>
+        <v>1.047158119025665</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.051502382833028</v>
+        <v>1.049920583568679</v>
       </c>
       <c r="N17">
-        <v>1.017915549711163</v>
+        <v>1.018029675314044</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050453401689931</v>
+        <v>1.049202985140518</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046026289896526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044510718989171</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024857909086764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015898506250458</v>
+        <v>1.014162613720481</v>
       </c>
       <c r="D18">
-        <v>1.036271976552556</v>
+        <v>1.034045212913876</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.038287902653287</v>
+        <v>1.036661079429114</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.056578285571998</v>
+        <v>1.055306357771658</v>
       </c>
       <c r="J18">
-        <v>1.0423740558923</v>
+        <v>1.040701048958326</v>
       </c>
       <c r="K18">
-        <v>1.049492662808605</v>
+        <v>1.047301065512207</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.051476918640971</v>
+        <v>1.049875640589895</v>
       </c>
       <c r="N18">
-        <v>1.017937144460204</v>
+        <v>1.018012654284358</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.050197530961124</v>
+        <v>1.048931456400447</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.046133335875526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044599158217598</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.0248577912077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01582523789616</v>
+        <v>1.0141368696438</v>
       </c>
       <c r="D19">
-        <v>1.036093121236656</v>
+        <v>1.033909662279352</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.037797927658905</v>
+        <v>1.036203735799141</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.056430969431678</v>
+        <v>1.055186853080589</v>
       </c>
       <c r="J19">
-        <v>1.04217222107961</v>
+        <v>1.040544668889207</v>
       </c>
       <c r="K19">
-        <v>1.049255261009571</v>
+        <v>1.047106114558958</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.050933405161008</v>
+        <v>1.049364142214555</v>
       </c>
       <c r="N19">
-        <v>1.017779555183806</v>
+        <v>1.017908794942376</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049445271921584</v>
+        <v>1.048204112121402</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045971802355703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044468266522407</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024771738462777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013689216247103</v>
+        <v>1.012240833223067</v>
       </c>
       <c r="D20">
-        <v>1.034415547788337</v>
+        <v>1.032462892732494</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.035540860144839</v>
+        <v>1.034123398011841</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.055548219549071</v>
+        <v>1.054451263577792</v>
       </c>
       <c r="J20">
-        <v>1.040702452940764</v>
+        <v>1.039307911844894</v>
       </c>
       <c r="K20">
-        <v>1.047879081717135</v>
+        <v>1.045957968610632</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.048986285802686</v>
+        <v>1.047591641417974</v>
       </c>
       <c r="N20">
-        <v>1.017118332932801</v>
+        <v>1.017552458388279</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047382168458576</v>
+        <v>1.046278464172718</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.045002690218324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043660771800163</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024445898901271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008937466898512</v>
+        <v>1.007945002094758</v>
       </c>
       <c r="D21">
-        <v>1.031192930169273</v>
+        <v>1.02966928736094</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.032158974848652</v>
+        <v>1.03107632063988</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054061518831826</v>
+        <v>1.053241054356431</v>
       </c>
       <c r="J21">
-        <v>1.038066211273113</v>
+        <v>1.037114261203771</v>
       </c>
       <c r="K21">
-        <v>1.045606497781701</v>
+        <v>1.044109554203675</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.046555667060695</v>
+        <v>1.045491928022457</v>
       </c>
       <c r="N21">
-        <v>1.016199938930872</v>
+        <v>1.017390566838654</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045418061655262</v>
+        <v>1.044576188737794</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043399118090513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042357426177832</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024062696298559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.005911541009725</v>
+        <v>1.005206639292074</v>
       </c>
       <c r="D22">
-        <v>1.029152698093041</v>
+        <v>1.027899534649914</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.030052279988509</v>
+        <v>1.029181005413455</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.053112281300015</v>
+        <v>1.052465568616308</v>
       </c>
       <c r="J22">
-        <v>1.036394445561851</v>
+        <v>1.035719996512239</v>
       </c>
       <c r="K22">
-        <v>1.044167942439357</v>
+        <v>1.042937842804978</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.045051013070547</v>
+        <v>1.044195729623588</v>
       </c>
       <c r="N22">
-        <v>1.015621728818975</v>
+        <v>1.017283782200566</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044227235991387</v>
+        <v>1.043550339650985</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.04236866776746</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041514339084131</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023820323600028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007507227820478</v>
+        <v>1.006635316636298</v>
       </c>
       <c r="D23">
-        <v>1.030222271477775</v>
+        <v>1.028815299895806</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.031160626175658</v>
+        <v>1.030168457471266</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.053608883862054</v>
+        <v>1.05286258142606</v>
       </c>
       <c r="J23">
-        <v>1.037270427205134</v>
+        <v>1.036435078902874</v>
       </c>
       <c r="K23">
-        <v>1.044918370611357</v>
+        <v>1.043536634832684</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.045839944444543</v>
+        <v>1.044865520179938</v>
       </c>
       <c r="N23">
-        <v>1.015920649671626</v>
+        <v>1.017290221178463</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044851618804127</v>
+        <v>1.044080431544655</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042889713082524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.04192722827701</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023939808240312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013683989282338</v>
+        <v>1.012244388919882</v>
       </c>
       <c r="D24">
-        <v>1.034383220016861</v>
+        <v>1.032437904708876</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.035473439395748</v>
+        <v>1.034061718441038</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.055519635745974</v>
+        <v>1.054427585455481</v>
       </c>
       <c r="J24">
-        <v>1.040665273624899</v>
+        <v>1.039279113935915</v>
       </c>
       <c r="K24">
-        <v>1.047832283776873</v>
+        <v>1.045918353963442</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.048904979819922</v>
+        <v>1.047515958818923</v>
       </c>
       <c r="N24">
-        <v>1.017086294252076</v>
+        <v>1.017529700394556</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047277370263622</v>
+        <v>1.046178062663555</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044942529088654</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043603006845893</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024426538852437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020600064710209</v>
+        <v>1.018745987989235</v>
       </c>
       <c r="D25">
-        <v>1.039063069225488</v>
+        <v>1.036673603360138</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.04034080176858</v>
+        <v>1.038593718505329</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.057617574955239</v>
+        <v>1.056251291024279</v>
       </c>
       <c r="J25">
-        <v>1.044453501152473</v>
+        <v>1.042658535101886</v>
       </c>
       <c r="K25">
-        <v>1.051083802442646</v>
+        <v>1.048728086313797</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.052343568153755</v>
+        <v>1.050621065525067</v>
       </c>
       <c r="N25">
-        <v>1.01838756591947</v>
+        <v>1.018388662731031</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049998752107612</v>
+        <v>1.048635523178461</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047238636864241</v>
+        <v>1.045586449068244</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025019265213713</v>
       </c>
     </row>
   </sheetData>
